--- a/data/pca/factorExposure/factorExposure_2011-07-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-07-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +744,66 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>-0.02440783913635363</v>
+        <v>-0.01589931825670037</v>
       </c>
       <c r="C2">
-        <v>-0.004657133371414647</v>
+        <v>0.001186984966864359</v>
       </c>
       <c r="D2">
-        <v>-0.0603796146147044</v>
+        <v>0.03271248217342346</v>
       </c>
       <c r="E2">
-        <v>-0.03338506807580405</v>
+        <v>0.01443620808748304</v>
       </c>
       <c r="F2">
-        <v>0.009823080322134633</v>
+        <v>0.01388423238419514</v>
       </c>
       <c r="G2">
-        <v>-0.04314525447260981</v>
+        <v>-0.02760254972519247</v>
       </c>
       <c r="H2">
-        <v>-0.02449559771250518</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.02134457650629487</v>
+      </c>
+      <c r="I2">
+        <v>0.03251933313776682</v>
+      </c>
+      <c r="J2">
+        <v>0.07138866344333986</v>
+      </c>
+      <c r="K2">
+        <v>0.03431681412321899</v>
+      </c>
+      <c r="L2">
+        <v>-0.04513859902058644</v>
+      </c>
+      <c r="M2">
+        <v>0.0507105581319874</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +826,66 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>-0.06655168893355733</v>
+        <v>-0.09629428879176304</v>
       </c>
       <c r="C4">
-        <v>0.07076777922906254</v>
+        <v>-0.07419669125551197</v>
       </c>
       <c r="D4">
-        <v>-0.02718771573095135</v>
+        <v>0.01717488455459318</v>
       </c>
       <c r="E4">
-        <v>-0.02315677189051758</v>
+        <v>0.06401367743131232</v>
       </c>
       <c r="F4">
-        <v>-0.04261281813760909</v>
+        <v>0.06815706701881853</v>
       </c>
       <c r="G4">
-        <v>-0.01606525814852174</v>
+        <v>-0.02075150732816117</v>
       </c>
       <c r="H4">
-        <v>0.02895073556196908</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>-0.09735135152873245</v>
+      </c>
+      <c r="I4">
+        <v>-0.001159390973985421</v>
+      </c>
+      <c r="J4">
+        <v>-0.04205575168380329</v>
+      </c>
+      <c r="K4">
+        <v>-0.04876544411189514</v>
+      </c>
+      <c r="L4">
+        <v>-0.03933888083749375</v>
+      </c>
+      <c r="M4">
+        <v>-0.003125927877684089</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +908,476 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>-0.1269577097171259</v>
+        <v>-0.1307033944398974</v>
       </c>
       <c r="C6">
-        <v>0.0518631032439761</v>
+        <v>-0.04866408252863755</v>
       </c>
       <c r="D6">
-        <v>-0.06595406545011004</v>
+        <v>0.03089744990800345</v>
       </c>
       <c r="E6">
-        <v>-0.06262101879633378</v>
+        <v>0.002532172312973697</v>
       </c>
       <c r="F6">
-        <v>-0.05753272923538823</v>
+        <v>0.06357895994213469</v>
       </c>
       <c r="G6">
-        <v>0.07159324648414798</v>
+        <v>0.152226064826625</v>
       </c>
       <c r="H6">
-        <v>-0.1197273838289795</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>-0.1266136792046273</v>
+      </c>
+      <c r="I6">
+        <v>0.3711522086987414</v>
+      </c>
+      <c r="J6">
+        <v>-0.2280542911778186</v>
+      </c>
+      <c r="K6">
+        <v>-0.06308483873472896</v>
+      </c>
+      <c r="L6">
+        <v>0.1095061641981094</v>
+      </c>
+      <c r="M6">
+        <v>-0.01907394456665914</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>-0.06694947978365101</v>
+        <v>-0.06710080016340685</v>
       </c>
       <c r="C7">
-        <v>0.05125903927617215</v>
+        <v>-0.07092090398897677</v>
       </c>
       <c r="D7">
-        <v>-0.05815655757414536</v>
+        <v>0.0379929255043726</v>
       </c>
       <c r="E7">
-        <v>-0.02253839517704992</v>
+        <v>0.02523154279277713</v>
       </c>
       <c r="F7">
-        <v>-0.04023611686865798</v>
+        <v>0.00747379402969141</v>
       </c>
       <c r="G7">
-        <v>0.0388511679433632</v>
+        <v>-0.0003223938959611556</v>
       </c>
       <c r="H7">
-        <v>0.002755273257154582</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>-0.05066243401781248</v>
+      </c>
+      <c r="I7">
+        <v>-0.07354976855633982</v>
+      </c>
+      <c r="J7">
+        <v>0.0190815593616507</v>
+      </c>
+      <c r="K7">
+        <v>-0.02331741181784999</v>
+      </c>
+      <c r="L7">
+        <v>-0.0457158558488238</v>
+      </c>
+      <c r="M7">
+        <v>-0.09422626846417649</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>-0.02015550705111475</v>
+        <v>-0.03412654117579803</v>
       </c>
       <c r="C8">
-        <v>0.01364476165746755</v>
+        <v>-0.008120009814842852</v>
       </c>
       <c r="D8">
-        <v>-0.03915724839390624</v>
+        <v>0.02608162722034084</v>
       </c>
       <c r="E8">
-        <v>-0.08028712292448634</v>
+        <v>0.07133862424807974</v>
       </c>
       <c r="F8">
-        <v>-0.002889458426770116</v>
+        <v>0.0802293048298522</v>
       </c>
       <c r="G8">
-        <v>0.006252286812994896</v>
+        <v>0.002378987856764055</v>
       </c>
       <c r="H8">
-        <v>-0.03086336097125573</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>-0.08774425825622044</v>
+      </c>
+      <c r="I8">
+        <v>-0.01368567865005982</v>
+      </c>
+      <c r="J8">
+        <v>-0.04195372887625497</v>
+      </c>
+      <c r="K8">
+        <v>-0.05241119370229176</v>
+      </c>
+      <c r="L8">
+        <v>-0.000621239160287268</v>
+      </c>
+      <c r="M8">
+        <v>0.07550142911185925</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>-0.06932601522751722</v>
+        <v>-0.08242983566386181</v>
       </c>
       <c r="C9">
-        <v>0.08273237098474459</v>
+        <v>-0.06825131143083564</v>
       </c>
       <c r="D9">
-        <v>-0.03438443764061118</v>
+        <v>0.01390585268109564</v>
       </c>
       <c r="E9">
-        <v>-0.02442008236370191</v>
+        <v>0.04463502635788839</v>
       </c>
       <c r="F9">
-        <v>-0.02692497285318218</v>
+        <v>0.06956141859507967</v>
       </c>
       <c r="G9">
-        <v>-0.02204751712344089</v>
+        <v>-0.01937270826133468</v>
       </c>
       <c r="H9">
-        <v>0.02437247512185664</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>-0.1028059319818557</v>
+      </c>
+      <c r="I9">
+        <v>-0.006941995643860951</v>
+      </c>
+      <c r="J9">
+        <v>-0.01256558666694267</v>
+      </c>
+      <c r="K9">
+        <v>-0.0263644487634353</v>
+      </c>
+      <c r="L9">
+        <v>-0.007798120710524653</v>
+      </c>
+      <c r="M9">
+        <v>-0.00595143771172833</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>-0.05845830747394469</v>
+        <v>-0.1082558362007081</v>
       </c>
       <c r="C10">
-        <v>-0.1342595382734739</v>
+        <v>0.1669363735132643</v>
       </c>
       <c r="D10">
-        <v>-0.05774194079968112</v>
+        <v>0.03273060827674757</v>
       </c>
       <c r="E10">
-        <v>-0.02358045942117632</v>
+        <v>0.03703332858939992</v>
       </c>
       <c r="F10">
-        <v>-0.01396165460535932</v>
+        <v>-0.0333670445163397</v>
       </c>
       <c r="G10">
-        <v>0.04599805497047888</v>
+        <v>0.01721288623403332</v>
       </c>
       <c r="H10">
-        <v>-0.04929427374010042</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.004916417495963586</v>
+      </c>
+      <c r="I10">
+        <v>-0.03085439789535444</v>
+      </c>
+      <c r="J10">
+        <v>0.04697391922628847</v>
+      </c>
+      <c r="K10">
+        <v>0.00100203560753799</v>
+      </c>
+      <c r="L10">
+        <v>0.01951983234544692</v>
+      </c>
+      <c r="M10">
+        <v>-0.07437547997254224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>-0.06483406378426287</v>
+        <v>-0.06690475593843395</v>
       </c>
       <c r="C11">
-        <v>0.08900139981450077</v>
+        <v>-0.06959909253286474</v>
       </c>
       <c r="D11">
-        <v>-0.04350655642075534</v>
+        <v>0.02210821627800762</v>
       </c>
       <c r="E11">
-        <v>-0.00834510317716658</v>
+        <v>0.02057685940085729</v>
       </c>
       <c r="F11">
-        <v>0.02400443054339142</v>
+        <v>0.08162152211034585</v>
       </c>
       <c r="G11">
-        <v>-0.02603828220137418</v>
+        <v>-0.01851145946657334</v>
       </c>
       <c r="H11">
-        <v>0.02864452706285859</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>-0.06744392603223599</v>
+      </c>
+      <c r="I11">
+        <v>-0.07364302523472471</v>
+      </c>
+      <c r="J11">
+        <v>0.08481515111414227</v>
+      </c>
+      <c r="K11">
+        <v>0.01935371291511146</v>
+      </c>
+      <c r="L11">
+        <v>0.05496952490449918</v>
+      </c>
+      <c r="M11">
+        <v>-0.0160588890457352</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>-0.05885962736112253</v>
+        <v>-0.06718111029061129</v>
       </c>
       <c r="C12">
-        <v>0.05325919598126022</v>
+        <v>-0.0573247978819384</v>
       </c>
       <c r="D12">
-        <v>-0.02003177586980718</v>
+        <v>0.007885806452327686</v>
       </c>
       <c r="E12">
-        <v>-0.01180545042006184</v>
+        <v>0.02548473651625006</v>
       </c>
       <c r="F12">
-        <v>-0.01530547102236235</v>
+        <v>0.07881215535301235</v>
       </c>
       <c r="G12">
-        <v>0.01391134431021965</v>
+        <v>-0.01534354817866161</v>
       </c>
       <c r="H12">
-        <v>0.03404628282991781</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>-0.07217166751264752</v>
+      </c>
+      <c r="I12">
+        <v>-0.06367063257089674</v>
+      </c>
+      <c r="J12">
+        <v>0.08809753600213992</v>
+      </c>
+      <c r="K12">
+        <v>-0.04507644013090469</v>
+      </c>
+      <c r="L12">
+        <v>0.06331187856012256</v>
+      </c>
+      <c r="M12">
+        <v>0.0006994244703576021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>-0.05377017198156149</v>
+        <v>-0.05095987690745454</v>
       </c>
       <c r="C13">
-        <v>0.02040149936472174</v>
+        <v>-0.03619384724038462</v>
       </c>
       <c r="D13">
-        <v>-0.008024230204322674</v>
+        <v>0.001695640077276684</v>
       </c>
       <c r="E13">
-        <v>-0.0197973703105774</v>
+        <v>0.03382228722683848</v>
       </c>
       <c r="F13">
-        <v>0.008858166007642634</v>
+        <v>0.03136773752355701</v>
       </c>
       <c r="G13">
-        <v>-0.02751023511197738</v>
+        <v>-0.02166923421875764</v>
       </c>
       <c r="H13">
-        <v>0.04077272820736057</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>-0.03693370305247885</v>
+      </c>
+      <c r="I13">
+        <v>-0.03614252261657509</v>
+      </c>
+      <c r="J13">
+        <v>-0.04093743795641681</v>
+      </c>
+      <c r="K13">
+        <v>-0.06245980112265254</v>
+      </c>
+      <c r="L13">
+        <v>-0.0217442395556301</v>
+      </c>
+      <c r="M13">
+        <v>-0.0001449841087111662</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>-0.04288205185833139</v>
+        <v>-0.0456512523852932</v>
       </c>
       <c r="C14">
-        <v>0.01972131109738507</v>
+        <v>-0.02683112162540395</v>
       </c>
       <c r="D14">
-        <v>-0.01786695969616874</v>
+        <v>0.01242721918511772</v>
       </c>
       <c r="E14">
-        <v>-0.01045974375869224</v>
+        <v>0.01775772176199308</v>
       </c>
       <c r="F14">
-        <v>-0.04011117583423039</v>
+        <v>0.04805834716797431</v>
       </c>
       <c r="G14">
-        <v>-0.001148894463624716</v>
+        <v>-0.04280641016335887</v>
       </c>
       <c r="H14">
-        <v>-0.04027670756825289</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>-0.07406755433139825</v>
+      </c>
+      <c r="I14">
+        <v>-0.009400862945455836</v>
+      </c>
+      <c r="J14">
+        <v>-0.03689995674027734</v>
+      </c>
+      <c r="K14">
+        <v>-0.007298618307908591</v>
+      </c>
+      <c r="L14">
+        <v>-0.01240779759001365</v>
+      </c>
+      <c r="M14">
+        <v>-0.03392593552454388</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>-0.03802112699016286</v>
+        <v>-0.03504147760778927</v>
       </c>
       <c r="C15">
-        <v>-0.004692950821811687</v>
+        <v>-0.01332538565634879</v>
       </c>
       <c r="D15">
-        <v>0.006697727567146513</v>
+        <v>-0.01394411838999173</v>
       </c>
       <c r="E15">
-        <v>-0.02712554849730521</v>
+        <v>0.01438586932955776</v>
       </c>
       <c r="F15">
-        <v>-0.02493256985160811</v>
+        <v>0.02257123918635649</v>
       </c>
       <c r="G15">
-        <v>-0.001556904553200693</v>
+        <v>0.005006434079933916</v>
       </c>
       <c r="H15">
-        <v>0.01840386013416854</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>-0.04225649572868781</v>
+      </c>
+      <c r="I15">
+        <v>-0.01841205357104043</v>
+      </c>
+      <c r="J15">
+        <v>-0.05702625575880452</v>
+      </c>
+      <c r="K15">
+        <v>-0.02297177268796301</v>
+      </c>
+      <c r="L15">
+        <v>-0.01551818725934508</v>
+      </c>
+      <c r="M15">
+        <v>-0.01251872043907339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>-0.04793049430018985</v>
+        <v>-0.06765510745556948</v>
       </c>
       <c r="C16">
-        <v>0.0800387608663769</v>
+        <v>-0.07495905395403626</v>
       </c>
       <c r="D16">
-        <v>-0.02381729855265003</v>
+        <v>0.01190857684730984</v>
       </c>
       <c r="E16">
-        <v>-0.02153958470010704</v>
+        <v>0.03626690735068682</v>
       </c>
       <c r="F16">
-        <v>-0.02817541031357018</v>
+        <v>0.06610831937046378</v>
       </c>
       <c r="G16">
-        <v>-0.02262364253239944</v>
+        <v>-0.01545565264037076</v>
       </c>
       <c r="H16">
-        <v>0.01273772676071059</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>-0.08418798133906416</v>
+      </c>
+      <c r="I16">
+        <v>-0.06983856311394548</v>
+      </c>
+      <c r="J16">
+        <v>0.07110064440815535</v>
+      </c>
+      <c r="K16">
+        <v>0.006827803054912213</v>
+      </c>
+      <c r="L16">
+        <v>0.03459655652698097</v>
+      </c>
+      <c r="M16">
+        <v>-0.003411187877259679</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1400,25 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1441,25 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1482,312 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>-0.03990788173195763</v>
+        <v>-0.04305865216587548</v>
       </c>
       <c r="C20">
-        <v>0.04659139514861148</v>
+        <v>-0.0372462003952675</v>
       </c>
       <c r="D20">
-        <v>-0.02903203932410713</v>
+        <v>0.02290478479484096</v>
       </c>
       <c r="E20">
-        <v>-0.02173276531268671</v>
+        <v>0.01140091960454844</v>
       </c>
       <c r="F20">
-        <v>-0.02159178248108591</v>
+        <v>0.0607633875328939</v>
       </c>
       <c r="G20">
-        <v>-0.02291839343753961</v>
+        <v>-0.03271898180718513</v>
       </c>
       <c r="H20">
-        <v>0.03084182734041995</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>-0.09005170221972757</v>
+      </c>
+      <c r="I20">
+        <v>-0.04053301993276281</v>
+      </c>
+      <c r="J20">
+        <v>0.04003257682218744</v>
+      </c>
+      <c r="K20">
+        <v>-0.062359253616992</v>
+      </c>
+      <c r="L20">
+        <v>0.004999234116640158</v>
+      </c>
+      <c r="M20">
+        <v>-0.00941529995037341</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>-0.01220287135894498</v>
+        <v>-0.02478486681164541</v>
       </c>
       <c r="C21">
-        <v>0.0139680377784332</v>
+        <v>-0.01250718294839743</v>
       </c>
       <c r="D21">
-        <v>0.01245443933233156</v>
+        <v>-0.01063582972855346</v>
       </c>
       <c r="E21">
-        <v>-0.07728316508583219</v>
+        <v>0.04133677124006576</v>
       </c>
       <c r="F21">
-        <v>0.002570069540740985</v>
+        <v>0.03501181299101108</v>
       </c>
       <c r="G21">
-        <v>0.08169189709493345</v>
+        <v>0.08768656630514367</v>
       </c>
       <c r="H21">
-        <v>0.01781178118424325</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>-0.05715474092290275</v>
+      </c>
+      <c r="I21">
+        <v>-0.03387673756930509</v>
+      </c>
+      <c r="J21">
+        <v>-0.07627374742885226</v>
+      </c>
+      <c r="K21">
+        <v>-0.06209570641713722</v>
+      </c>
+      <c r="L21">
+        <v>0.02158587678733652</v>
+      </c>
+      <c r="M21">
+        <v>-0.1102171182621267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>-0.03510663469974302</v>
+        <v>-0.05336917542500692</v>
       </c>
       <c r="C22">
-        <v>0.07228376666909951</v>
+        <v>-0.06887673977260107</v>
       </c>
       <c r="D22">
-        <v>0.108516214642523</v>
+        <v>-0.2745092457767819</v>
       </c>
       <c r="E22">
-        <v>-0.4105794070186216</v>
+        <v>0.5224422209043469</v>
       </c>
       <c r="F22">
-        <v>-0.2101931341634694</v>
+        <v>-0.2880453361724384</v>
       </c>
       <c r="G22">
-        <v>-0.02645074163995987</v>
+        <v>0.02740139087449763</v>
       </c>
       <c r="H22">
-        <v>0.3047262518479217</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>0.117772541126492</v>
+      </c>
+      <c r="I22">
+        <v>0.07877909055006577</v>
+      </c>
+      <c r="J22">
+        <v>0.009350694875316081</v>
+      </c>
+      <c r="K22">
+        <v>-0.0144227391211714</v>
+      </c>
+      <c r="L22">
+        <v>-0.09930161559254612</v>
+      </c>
+      <c r="M22">
+        <v>-0.04098158960048176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>-0.03598281679350685</v>
+        <v>-0.05409528125790129</v>
       </c>
       <c r="C23">
-        <v>0.07112416015483171</v>
+        <v>-0.06913492645006994</v>
       </c>
       <c r="D23">
-        <v>0.1079849732705838</v>
+        <v>-0.2750743124967809</v>
       </c>
       <c r="E23">
-        <v>-0.4123168682405189</v>
+        <v>0.5256353354212128</v>
       </c>
       <c r="F23">
-        <v>-0.2080875929806156</v>
+        <v>-0.2839039705839147</v>
       </c>
       <c r="G23">
-        <v>-0.02543040711811384</v>
+        <v>0.02683580875569412</v>
       </c>
       <c r="H23">
-        <v>0.3006349535879224</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0.1172526029469033</v>
+      </c>
+      <c r="I23">
+        <v>0.08387059989456451</v>
+      </c>
+      <c r="J23">
+        <v>0.007804444839670612</v>
+      </c>
+      <c r="K23">
+        <v>-0.01248936592032229</v>
+      </c>
+      <c r="L23">
+        <v>-0.09782109090682775</v>
+      </c>
+      <c r="M23">
+        <v>-0.03952759997470714</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>-0.07078119986487026</v>
+        <v>-0.0743605855370269</v>
       </c>
       <c r="C24">
-        <v>0.08153817478618952</v>
+        <v>-0.07425421787116911</v>
       </c>
       <c r="D24">
-        <v>-0.0416938987612545</v>
+        <v>0.01140234875505544</v>
       </c>
       <c r="E24">
-        <v>-0.04606618621665039</v>
+        <v>0.04196725889093052</v>
       </c>
       <c r="F24">
-        <v>0.006502495271546226</v>
+        <v>0.07997080186268289</v>
       </c>
       <c r="G24">
-        <v>-0.01428457563446194</v>
+        <v>-0.0119319706585195</v>
       </c>
       <c r="H24">
-        <v>0.01112461552705186</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>-0.0767143166744665</v>
+      </c>
+      <c r="I24">
+        <v>-0.04511839438341107</v>
+      </c>
+      <c r="J24">
+        <v>0.0759566394478913</v>
+      </c>
+      <c r="K24">
+        <v>-0.006707307012219405</v>
+      </c>
+      <c r="L24">
+        <v>0.05099582937893498</v>
+      </c>
+      <c r="M24">
+        <v>-0.014637821236391</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>-0.06276874036403771</v>
+        <v>-0.07072765490762216</v>
       </c>
       <c r="C25">
-        <v>0.04300714632270355</v>
+        <v>-0.04605980127140095</v>
       </c>
       <c r="D25">
-        <v>-0.04220182640203326</v>
+        <v>0.01851155401565993</v>
       </c>
       <c r="E25">
-        <v>-0.04184460406618318</v>
+        <v>0.03492587593148137</v>
       </c>
       <c r="F25">
-        <v>-0.01601975079583738</v>
+        <v>0.07593357486255993</v>
       </c>
       <c r="G25">
-        <v>-0.03323322797218269</v>
+        <v>-0.03428320250675507</v>
       </c>
       <c r="H25">
-        <v>-0.009166150397808425</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>-0.09002802315697669</v>
+      </c>
+      <c r="I25">
+        <v>-0.03712281705373995</v>
+      </c>
+      <c r="J25">
+        <v>0.09745795327755541</v>
+      </c>
+      <c r="K25">
+        <v>0.01149878577504436</v>
+      </c>
+      <c r="L25">
+        <v>0.04881178323252622</v>
+      </c>
+      <c r="M25">
+        <v>-0.00220330828272071</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>-0.0381723836546488</v>
+        <v>-0.04107124735462604</v>
       </c>
       <c r="C26">
-        <v>0.02826489376505275</v>
+        <v>-0.0255658925135687</v>
       </c>
       <c r="D26">
-        <v>-0.03738149912847732</v>
+        <v>-0.007094748443662673</v>
       </c>
       <c r="E26">
-        <v>0.002614917473460335</v>
+        <v>0.0279544887968027</v>
       </c>
       <c r="F26">
-        <v>-0.03568821263061112</v>
+        <v>0.03140047400923515</v>
       </c>
       <c r="G26">
-        <v>0.007679643857085612</v>
+        <v>-0.008360664351287876</v>
       </c>
       <c r="H26">
-        <v>0.0364717245609047</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>-0.05615137865208809</v>
+      </c>
+      <c r="I26">
+        <v>-0.06130779901761151</v>
+      </c>
+      <c r="J26">
+        <v>-0.1027308471938274</v>
+      </c>
+      <c r="K26">
+        <v>-0.04420092341375389</v>
+      </c>
+      <c r="L26">
+        <v>-0.0393759426957551</v>
+      </c>
+      <c r="M26">
+        <v>-0.1150790532039973</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1810,394 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>-0.1159691727719185</v>
+        <v>-0.1402205217698149</v>
       </c>
       <c r="C28">
-        <v>-0.2943662647829982</v>
+        <v>0.2874029016117568</v>
       </c>
       <c r="D28">
-        <v>-0.05278233964571664</v>
+        <v>0.0189390037256206</v>
       </c>
       <c r="E28">
-        <v>-0.005407785997660456</v>
+        <v>0.0287347462766045</v>
       </c>
       <c r="F28">
-        <v>-0.0295652089704102</v>
+        <v>-0.008043085476048007</v>
       </c>
       <c r="G28">
-        <v>0.06696822140969681</v>
+        <v>0.03113434095572406</v>
       </c>
       <c r="H28">
-        <v>0.002965682215644367</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>0.009318343372807729</v>
+      </c>
+      <c r="I28">
+        <v>-0.02055959761697543</v>
+      </c>
+      <c r="J28">
+        <v>-0.04786458285955791</v>
+      </c>
+      <c r="K28">
+        <v>0.001793799933133185</v>
+      </c>
+      <c r="L28">
+        <v>-0.01772804661400577</v>
+      </c>
+      <c r="M28">
+        <v>0.04361743182248162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>-0.04764025052801192</v>
+        <v>-0.04510979209584463</v>
       </c>
       <c r="C29">
-        <v>0.007102916059209167</v>
+        <v>-0.02241129159455087</v>
       </c>
       <c r="D29">
-        <v>-0.01118175455152848</v>
+        <v>0.0110924628641454</v>
       </c>
       <c r="E29">
-        <v>-0.02789166931320537</v>
+        <v>0.02528452762323111</v>
       </c>
       <c r="F29">
-        <v>-0.03904663055642146</v>
+        <v>0.0410785965391608</v>
       </c>
       <c r="G29">
-        <v>-0.01742467932264645</v>
+        <v>-0.05157001731712454</v>
       </c>
       <c r="H29">
-        <v>-0.01073740533248029</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>-0.06241214376880608</v>
+      </c>
+      <c r="I29">
+        <v>-0.005962167202268361</v>
+      </c>
+      <c r="J29">
+        <v>-0.01926726228021431</v>
+      </c>
+      <c r="K29">
+        <v>-0.006632741031907858</v>
+      </c>
+      <c r="L29">
+        <v>-0.01451187284863488</v>
+      </c>
+      <c r="M29">
+        <v>-0.01895654950620674</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>-0.1242752237858399</v>
+        <v>-0.1036156121091214</v>
       </c>
       <c r="C30">
-        <v>0.07651695715010595</v>
+        <v>-0.06570551847838806</v>
       </c>
       <c r="D30">
-        <v>-0.07552205706422044</v>
+        <v>0.01974815776046809</v>
       </c>
       <c r="E30">
-        <v>-0.04848334436874721</v>
+        <v>0.08013956477894919</v>
       </c>
       <c r="F30">
-        <v>-0.05742207541071501</v>
+        <v>0.1308005532668293</v>
       </c>
       <c r="G30">
-        <v>0.01591284514662354</v>
+        <v>0.02958111025554858</v>
       </c>
       <c r="H30">
-        <v>0.03496215484134697</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>-0.1921000103706163</v>
+      </c>
+      <c r="I30">
+        <v>-0.01792850161041977</v>
+      </c>
+      <c r="J30">
+        <v>0.06889335437862132</v>
+      </c>
+      <c r="K30">
+        <v>-0.2437863637790942</v>
+      </c>
+      <c r="L30">
+        <v>-0.3262756935304144</v>
+      </c>
+      <c r="M30">
+        <v>0.1570769352886852</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>-0.04828824533979902</v>
+        <v>-0.03471629938969267</v>
       </c>
       <c r="C31">
-        <v>0.02189773017043341</v>
+        <v>-0.04294575483597907</v>
       </c>
       <c r="D31">
-        <v>-0.002612455173437477</v>
+        <v>-0.01123820649196275</v>
       </c>
       <c r="E31">
-        <v>0.008015834402555775</v>
+        <v>0.005544147511587373</v>
       </c>
       <c r="F31">
-        <v>-0.021258114312251</v>
+        <v>0.009790703255967089</v>
       </c>
       <c r="G31">
-        <v>-0.02402208908982746</v>
+        <v>-0.05260058574985405</v>
       </c>
       <c r="H31">
-        <v>0.03723342104352216</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>-0.03471930902479864</v>
+      </c>
+      <c r="I31">
+        <v>-0.009602242900810772</v>
+      </c>
+      <c r="J31">
+        <v>-0.002968207089845261</v>
+      </c>
+      <c r="K31">
+        <v>-0.03037971483686088</v>
+      </c>
+      <c r="L31">
+        <v>0.01645897424220653</v>
+      </c>
+      <c r="M31">
+        <v>0.013117336515667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>-0.02456737862562529</v>
+        <v>-0.04523630209353751</v>
       </c>
       <c r="C32">
-        <v>-0.0013918885531291</v>
+        <v>0.003519148940095421</v>
       </c>
       <c r="D32">
-        <v>0.03638846654737699</v>
+        <v>-0.02784561540002042</v>
       </c>
       <c r="E32">
-        <v>-0.07571387776616584</v>
+        <v>0.05755226554500084</v>
       </c>
       <c r="F32">
-        <v>-0.02203838691259852</v>
+        <v>0.03034000501635842</v>
       </c>
       <c r="G32">
-        <v>-0.01487104667880692</v>
+        <v>0.008973790009699003</v>
       </c>
       <c r="H32">
-        <v>0.07415852648243036</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>-0.01148222963062264</v>
+      </c>
+      <c r="I32">
+        <v>-0.06929847707501803</v>
+      </c>
+      <c r="J32">
+        <v>-0.07588814090912019</v>
+      </c>
+      <c r="K32">
+        <v>-0.04274469568694449</v>
+      </c>
+      <c r="L32">
+        <v>-0.110250864256509</v>
+      </c>
+      <c r="M32">
+        <v>0.1121499123348339</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>-0.0962847265010541</v>
+        <v>-0.09749549116382664</v>
       </c>
       <c r="C33">
-        <v>0.0598974201171799</v>
+        <v>-0.06688595384545183</v>
       </c>
       <c r="D33">
-        <v>-0.01199648224044821</v>
+        <v>-0.02151498349428582</v>
       </c>
       <c r="E33">
-        <v>-0.0002505293438165337</v>
+        <v>0.01566475949158534</v>
       </c>
       <c r="F33">
-        <v>-0.01858550579989559</v>
+        <v>0.05256859270727436</v>
       </c>
       <c r="G33">
-        <v>-0.03257462587824635</v>
+        <v>-0.05358427918891116</v>
       </c>
       <c r="H33">
-        <v>0.03462387923883955</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>-0.06000511127444753</v>
+      </c>
+      <c r="I33">
+        <v>-0.01136986538289832</v>
+      </c>
+      <c r="J33">
+        <v>-0.02474871429616007</v>
+      </c>
+      <c r="K33">
+        <v>-0.0365905421734524</v>
+      </c>
+      <c r="L33">
+        <v>0.01488211490396725</v>
+      </c>
+      <c r="M33">
+        <v>0.01832390591445701</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>-0.05275455240195255</v>
+        <v>-0.06160515850318127</v>
       </c>
       <c r="C34">
-        <v>0.07668606039455513</v>
+        <v>-0.06063838438661936</v>
       </c>
       <c r="D34">
-        <v>-0.02469912245799588</v>
+        <v>0.009385750739011324</v>
       </c>
       <c r="E34">
-        <v>-0.04660396025581263</v>
+        <v>0.0242334378150214</v>
       </c>
       <c r="F34">
-        <v>-0.01640089706582833</v>
+        <v>0.06778639924088076</v>
       </c>
       <c r="G34">
-        <v>-0.01828056233014462</v>
+        <v>-0.02939129642124918</v>
       </c>
       <c r="H34">
-        <v>0.007038098844378233</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>-0.07399316776359215</v>
+      </c>
+      <c r="I34">
+        <v>-0.03891271571728177</v>
+      </c>
+      <c r="J34">
+        <v>0.06979773324957408</v>
+      </c>
+      <c r="K34">
+        <v>-0.0007404526408172158</v>
+      </c>
+      <c r="L34">
+        <v>0.05560678895803099</v>
+      </c>
+      <c r="M34">
+        <v>-0.02260043521333378</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>-0.03810354117467844</v>
+        <v>-0.03017417630921409</v>
       </c>
       <c r="C35">
-        <v>0.01824531587884718</v>
+        <v>-0.0235024746050997</v>
       </c>
       <c r="D35">
-        <v>-0.006187084540263127</v>
+        <v>-0.002985568649885838</v>
       </c>
       <c r="E35">
-        <v>-0.01871060165932127</v>
+        <v>0.002150330687311141</v>
       </c>
       <c r="F35">
-        <v>-0.0426312680858762</v>
+        <v>0.008777311532829958</v>
       </c>
       <c r="G35">
-        <v>-0.02808551663988887</v>
+        <v>-0.02197299037044618</v>
       </c>
       <c r="H35">
-        <v>0.05066374253289003</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>-0.06390933243678498</v>
+      </c>
+      <c r="I35">
+        <v>-0.03913500561899045</v>
+      </c>
+      <c r="J35">
+        <v>0.03293364893778057</v>
+      </c>
+      <c r="K35">
+        <v>-0.02564643201126138</v>
+      </c>
+      <c r="L35">
+        <v>-0.01983693193849095</v>
+      </c>
+      <c r="M35">
+        <v>-0.008752594735125177</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>-0.02800504343626726</v>
+        <v>-0.03032030115051035</v>
       </c>
       <c r="C36">
-        <v>0.01857111054644768</v>
+        <v>-0.01687106369302136</v>
       </c>
       <c r="D36">
-        <v>-0.02553640053586079</v>
+        <v>0.003710951901276241</v>
       </c>
       <c r="E36">
-        <v>-0.02507919813589111</v>
+        <v>0.03265527722392648</v>
       </c>
       <c r="F36">
-        <v>-0.01734926780000673</v>
+        <v>0.03971049554710722</v>
       </c>
       <c r="G36">
-        <v>-0.01691387706683554</v>
+        <v>-0.02415633883647703</v>
       </c>
       <c r="H36">
-        <v>0.01630131337735955</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>-0.05941156487461567</v>
+      </c>
+      <c r="I36">
+        <v>-0.01556997424725616</v>
+      </c>
+      <c r="J36">
+        <v>-0.01530409351201767</v>
+      </c>
+      <c r="K36">
+        <v>-0.03439910537465853</v>
+      </c>
+      <c r="L36">
+        <v>0.01503205086422893</v>
+      </c>
+      <c r="M36">
+        <v>-0.06179202664101257</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +2220,189 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>-0.03980724613912443</v>
+        <v>-0.03416244138664431</v>
       </c>
       <c r="C38">
-        <v>0.02512231906586991</v>
+        <v>-0.04888797454301331</v>
       </c>
       <c r="D38">
-        <v>0.02973144582931342</v>
+        <v>-0.008614418108299176</v>
       </c>
       <c r="E38">
-        <v>-0.05459852672215006</v>
+        <v>0.01999727131324536</v>
       </c>
       <c r="F38">
-        <v>-0.01059679017316235</v>
+        <v>-0.03830954517627192</v>
       </c>
       <c r="G38">
-        <v>0.009662275002726178</v>
+        <v>-0.01452961933214011</v>
       </c>
       <c r="H38">
-        <v>0.04685917244830759</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>0.08827732946362617</v>
+      </c>
+      <c r="I38">
+        <v>-0.02435718022320275</v>
+      </c>
+      <c r="J38">
+        <v>-0.08929182686857759</v>
+      </c>
+      <c r="K38">
+        <v>0.02432477436822663</v>
+      </c>
+      <c r="L38">
+        <v>-0.08127767652925165</v>
+      </c>
+      <c r="M38">
+        <v>-0.08197636975185374</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>-0.0923682240513647</v>
+        <v>-0.09107774652943057</v>
       </c>
       <c r="C39">
-        <v>0.09356290617021089</v>
+        <v>-0.07643899020118797</v>
       </c>
       <c r="D39">
-        <v>-0.01637178921040028</v>
+        <v>0.002682805303159948</v>
       </c>
       <c r="E39">
-        <v>-0.04532269038955501</v>
+        <v>0.03999716533306198</v>
       </c>
       <c r="F39">
-        <v>-0.005517069427680064</v>
+        <v>0.07544862562590263</v>
       </c>
       <c r="G39">
-        <v>-0.004919162162236192</v>
+        <v>-0.01919426552303284</v>
       </c>
       <c r="H39">
-        <v>0.01844539102733141</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>-0.08396998119070662</v>
+      </c>
+      <c r="I39">
+        <v>-0.1160334070811482</v>
+      </c>
+      <c r="J39">
+        <v>0.1493024880230631</v>
+      </c>
+      <c r="K39">
+        <v>-0.04502830778390966</v>
+      </c>
+      <c r="L39">
+        <v>-0.0725534039908409</v>
+      </c>
+      <c r="M39">
+        <v>0.05637014630287214</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>-0.06218074232651032</v>
+        <v>-0.03949481564595191</v>
       </c>
       <c r="C40">
-        <v>0.02362547922477381</v>
+        <v>-0.05592707483654467</v>
       </c>
       <c r="D40">
-        <v>0.02035667633671949</v>
+        <v>-0.04830104364365307</v>
       </c>
       <c r="E40">
-        <v>-0.172999342844281</v>
+        <v>0.06874658951236108</v>
       </c>
       <c r="F40">
-        <v>-0.08060117150698978</v>
+        <v>0.1189205187389476</v>
       </c>
       <c r="G40">
-        <v>-0.02288158334231933</v>
+        <v>0.04944654016483228</v>
       </c>
       <c r="H40">
-        <v>0.02827470835944336</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>-0.035360502032398</v>
+      </c>
+      <c r="I40">
+        <v>-0.09376278654388551</v>
+      </c>
+      <c r="J40">
+        <v>0.02601094511596896</v>
+      </c>
+      <c r="K40">
+        <v>-0.03956674080284846</v>
+      </c>
+      <c r="L40">
+        <v>-0.08861525307123116</v>
+      </c>
+      <c r="M40">
+        <v>-0.1105713403962419</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>-0.04499204364969628</v>
+        <v>-0.03722236462333527</v>
       </c>
       <c r="C41">
-        <v>0.0494968606283994</v>
+        <v>-0.03636698000862557</v>
       </c>
       <c r="D41">
-        <v>-0.003718996901931403</v>
+        <v>0.01118802297421366</v>
       </c>
       <c r="E41">
-        <v>-0.006767121346635781</v>
+        <v>-0.02158548488515933</v>
       </c>
       <c r="F41">
-        <v>-0.01456326139523897</v>
+        <v>0.03695405091777944</v>
       </c>
       <c r="G41">
-        <v>-0.0157282329020381</v>
+        <v>-0.02652524671804664</v>
       </c>
       <c r="H41">
-        <v>0.02331811997582942</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>-0.006878870269414721</v>
+      </c>
+      <c r="I41">
+        <v>-0.04116320486131657</v>
+      </c>
+      <c r="J41">
+        <v>0.0001362348802406942</v>
+      </c>
+      <c r="K41">
+        <v>-0.01671011961975426</v>
+      </c>
+      <c r="L41">
+        <v>0.001609590388263027</v>
+      </c>
+      <c r="M41">
+        <v>0.00221372344534786</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2425,107 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>-0.05579662460426293</v>
+        <v>-0.05334975715190362</v>
       </c>
       <c r="C43">
-        <v>0.0395390261828328</v>
+        <v>-0.05202591523603316</v>
       </c>
       <c r="D43">
-        <v>-0.02279601981198472</v>
+        <v>0.008618779596876765</v>
       </c>
       <c r="E43">
-        <v>-0.02847485614364886</v>
+        <v>0.02421506353811503</v>
       </c>
       <c r="F43">
-        <v>-0.006318637472599115</v>
+        <v>0.01855052271721129</v>
       </c>
       <c r="G43">
-        <v>0.003845239156789598</v>
+        <v>-0.04565772224236853</v>
       </c>
       <c r="H43">
-        <v>0.06823654657054411</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>-0.001301921720336839</v>
+      </c>
+      <c r="I43">
+        <v>-0.02866818942754175</v>
+      </c>
+      <c r="J43">
+        <v>0.007844419381671516</v>
+      </c>
+      <c r="K43">
+        <v>-0.01931009396481069</v>
+      </c>
+      <c r="L43">
+        <v>0.02753408265437636</v>
+      </c>
+      <c r="M43">
+        <v>-0.009869504481182383</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>-0.04861106319224036</v>
+        <v>-0.08100762491430577</v>
       </c>
       <c r="C44">
-        <v>0.02764971360497278</v>
+        <v>-0.05602495307680317</v>
       </c>
       <c r="D44">
-        <v>-0.06326349020124883</v>
+        <v>0.04117451062364604</v>
       </c>
       <c r="E44">
-        <v>-0.1213162417631542</v>
+        <v>0.1354882481996208</v>
       </c>
       <c r="F44">
-        <v>-0.03514661723741208</v>
+        <v>0.1028142293824238</v>
       </c>
       <c r="G44">
-        <v>-0.001988366939546219</v>
+        <v>-0.02271397899439702</v>
       </c>
       <c r="H44">
-        <v>-0.02456798285963284</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>-0.09701548376632495</v>
+      </c>
+      <c r="I44">
+        <v>-0.06416397885351637</v>
+      </c>
+      <c r="J44">
+        <v>0.03117439896920772</v>
+      </c>
+      <c r="K44">
+        <v>-0.01723625229246937</v>
+      </c>
+      <c r="L44">
+        <v>-0.05920992672952733</v>
+      </c>
+      <c r="M44">
+        <v>-0.0692728794669519</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,166 +2548,271 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>-0.01975710172499234</v>
+        <v>-0.04048452715603664</v>
       </c>
       <c r="C46">
-        <v>0.03296498129599451</v>
+        <v>-0.04246304929453872</v>
       </c>
       <c r="D46">
-        <v>-0.01169325184146972</v>
+        <v>0.005072153487156772</v>
       </c>
       <c r="E46">
-        <v>-0.05641277299440063</v>
+        <v>0.04382336152816568</v>
       </c>
       <c r="F46">
-        <v>-0.02860224030458194</v>
+        <v>0.01843536267180393</v>
       </c>
       <c r="G46">
-        <v>-0.006241709348102328</v>
+        <v>-0.02298016624020443</v>
       </c>
       <c r="H46">
-        <v>-0.006949622966190614</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>-0.06513460533429741</v>
+      </c>
+      <c r="I46">
+        <v>-0.01859236415181837</v>
+      </c>
+      <c r="J46">
+        <v>-0.0576068249345123</v>
+      </c>
+      <c r="K46">
+        <v>-0.00995981820402125</v>
+      </c>
+      <c r="L46">
+        <v>-0.01037600028844862</v>
+      </c>
+      <c r="M46">
+        <v>-0.0450242993656411</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>-0.02990731190582417</v>
+        <v>-0.04436690227721575</v>
       </c>
       <c r="C47">
-        <v>-0.004146351537352844</v>
+        <v>-0.02719522337561308</v>
       </c>
       <c r="D47">
-        <v>0.00487401345638257</v>
+        <v>-0.01460395871181726</v>
       </c>
       <c r="E47">
-        <v>-0.06040738308209823</v>
+        <v>0.0326388485315344</v>
       </c>
       <c r="F47">
-        <v>-0.04153161092179578</v>
+        <v>0.01394632027190127</v>
       </c>
       <c r="G47">
-        <v>-0.02952115505470384</v>
+        <v>-0.03571106608325475</v>
       </c>
       <c r="H47">
-        <v>0.0005181000828645308</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>-0.0317958720607119</v>
+      </c>
+      <c r="I47">
+        <v>0.01905086669573471</v>
+      </c>
+      <c r="J47">
+        <v>-0.0001942725625160085</v>
+      </c>
+      <c r="K47">
+        <v>-0.03188233729888582</v>
+      </c>
+      <c r="L47">
+        <v>0.04148375503657372</v>
+      </c>
+      <c r="M47">
+        <v>-0.04863883557558493</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>-0.03670555932023314</v>
+        <v>-0.04168931816211009</v>
       </c>
       <c r="C48">
-        <v>0.02347374703000144</v>
+        <v>-0.01639752013253143</v>
       </c>
       <c r="D48">
-        <v>-0.008093980479836286</v>
+        <v>-0.01527938787679684</v>
       </c>
       <c r="E48">
-        <v>-0.04131204799439105</v>
+        <v>0.03141491312375012</v>
       </c>
       <c r="F48">
-        <v>-0.0380968528415059</v>
+        <v>0.02573958116964194</v>
       </c>
       <c r="G48">
-        <v>-0.01471519639979426</v>
+        <v>0.0006916152598127032</v>
       </c>
       <c r="H48">
-        <v>0.05011552694716434</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>-0.06708555523322339</v>
+      </c>
+      <c r="I48">
+        <v>-0.02772533711068892</v>
+      </c>
+      <c r="J48">
+        <v>0.003795042231188464</v>
+      </c>
+      <c r="K48">
+        <v>-0.06564921649836386</v>
+      </c>
+      <c r="L48">
+        <v>0.005459854229719113</v>
+      </c>
+      <c r="M48">
+        <v>-0.04099006525667536</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>-0.1850773803654256</v>
+        <v>-0.2223386442971117</v>
       </c>
       <c r="C49">
-        <v>0.1229061970956782</v>
+        <v>-0.08245158240529647</v>
       </c>
       <c r="D49">
-        <v>-0.07852091160888643</v>
+        <v>0.08467114514224233</v>
       </c>
       <c r="E49">
-        <v>0.08575969131152542</v>
+        <v>-0.1053312180178501</v>
       </c>
       <c r="F49">
-        <v>-0.03638197663928754</v>
+        <v>-0.2012164573842899</v>
       </c>
       <c r="G49">
-        <v>0.1695726330066941</v>
+        <v>0.1940006847076408</v>
       </c>
       <c r="H49">
-        <v>-0.07662149467595841</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>0.01803123868125502</v>
+      </c>
+      <c r="I49">
+        <v>-0.0594217882461559</v>
+      </c>
+      <c r="J49">
+        <v>0.1185464173644947</v>
+      </c>
+      <c r="K49">
+        <v>0.1787301760196027</v>
+      </c>
+      <c r="L49">
+        <v>0.06840076258224116</v>
+      </c>
+      <c r="M49">
+        <v>-0.05603714553019776</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>-0.05369462244464668</v>
+        <v>-0.04269468743405348</v>
       </c>
       <c r="C50">
-        <v>0.03108778809504113</v>
+        <v>-0.04260010412925028</v>
       </c>
       <c r="D50">
-        <v>-0.007755622125413556</v>
+        <v>-0.01419666311561785</v>
       </c>
       <c r="E50">
-        <v>-0.01108628925795071</v>
+        <v>0.006413823363537036</v>
       </c>
       <c r="F50">
-        <v>-0.04129153648829188</v>
+        <v>0.0336176773561422</v>
       </c>
       <c r="G50">
-        <v>-0.05051919261797735</v>
+        <v>-0.05406445711618765</v>
       </c>
       <c r="H50">
-        <v>0.003727303692590418</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>-0.04592932515294496</v>
+      </c>
+      <c r="I50">
+        <v>0.02566868471416993</v>
+      </c>
+      <c r="J50">
+        <v>-0.0198335375515411</v>
+      </c>
+      <c r="K50">
+        <v>-0.01310912200402638</v>
+      </c>
+      <c r="L50">
+        <v>-0.0466350879956888</v>
+      </c>
+      <c r="M50">
+        <v>-0.01287643902908573</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>-0.02594266490166501</v>
+        <v>-0.03222800339446461</v>
       </c>
       <c r="C51">
-        <v>0.006059403690486375</v>
+        <v>-0.005348459483139559</v>
       </c>
       <c r="D51">
-        <v>0.002126234346909664</v>
+        <v>0.019025849745835</v>
       </c>
       <c r="E51">
-        <v>-0.0193898952102044</v>
+        <v>0.00808489692042995</v>
       </c>
       <c r="F51">
-        <v>-0.0009945545760984703</v>
+        <v>-0.01856750917799645</v>
       </c>
       <c r="G51">
-        <v>0.01931087180536321</v>
+        <v>0.01681068385936613</v>
       </c>
       <c r="H51">
-        <v>-0.02214961959792581</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>0.02144659363875351</v>
+      </c>
+      <c r="I51">
+        <v>-0.009568018721174741</v>
+      </c>
+      <c r="J51">
+        <v>0.07015213770439539</v>
+      </c>
+      <c r="K51">
+        <v>0.03619227542161364</v>
+      </c>
+      <c r="L51">
+        <v>0.06517757516571672</v>
+      </c>
+      <c r="M51">
+        <v>0.04310416764168514</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2055,114 +2835,189 @@
       <c r="H52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>-0.165175093279909</v>
+        <v>-0.153025971088258</v>
       </c>
       <c r="C53">
-        <v>0.02041581627699018</v>
+        <v>-0.05307741283622523</v>
       </c>
       <c r="D53">
-        <v>-0.0349010039901953</v>
+        <v>0.02083820086923058</v>
       </c>
       <c r="E53">
-        <v>0.05874210882169292</v>
+        <v>-0.05076644925383533</v>
       </c>
       <c r="F53">
-        <v>0.07951803391671225</v>
+        <v>-0.02969587607842625</v>
       </c>
       <c r="G53">
-        <v>-0.2688293942880574</v>
+        <v>-0.2422193470230527</v>
       </c>
       <c r="H53">
-        <v>0.03323852471159455</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>0.07342102696076346</v>
+      </c>
+      <c r="I53">
+        <v>0.0792816949897429</v>
+      </c>
+      <c r="J53">
+        <v>-0.03431383781334178</v>
+      </c>
+      <c r="K53">
+        <v>0.07934038307800249</v>
+      </c>
+      <c r="L53">
+        <v>-0.06710941296346518</v>
+      </c>
+      <c r="M53">
+        <v>0.0691150392352313</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>-0.05334348050340634</v>
+        <v>-0.05615471932382773</v>
       </c>
       <c r="C54">
-        <v>0.03977802971306644</v>
+        <v>-0.02928838427736935</v>
       </c>
       <c r="D54">
-        <v>-0.0324409064834221</v>
+        <v>-0.004003688857121648</v>
       </c>
       <c r="E54">
-        <v>-0.03376340281408245</v>
+        <v>0.03965368084747144</v>
       </c>
       <c r="F54">
-        <v>-0.005988697289668364</v>
+        <v>0.09532358949797043</v>
       </c>
       <c r="G54">
-        <v>-0.002082677485157658</v>
+        <v>-0.0364517922581639</v>
       </c>
       <c r="H54">
-        <v>0.02989235470930626</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>-0.09041941152674896</v>
+      </c>
+      <c r="I54">
+        <v>-0.01412792489635427</v>
+      </c>
+      <c r="J54">
+        <v>-0.05345288955022207</v>
+      </c>
+      <c r="K54">
+        <v>-0.05919899213428932</v>
+      </c>
+      <c r="L54">
+        <v>-0.007550246850641055</v>
+      </c>
+      <c r="M54">
+        <v>-0.0584512637573</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>-0.093152095994946</v>
+        <v>-0.09078364483005516</v>
       </c>
       <c r="C55">
-        <v>0.007427110689495873</v>
+        <v>-0.04116604538253204</v>
       </c>
       <c r="D55">
-        <v>-0.02937507329895825</v>
+        <v>0.02547011220010048</v>
       </c>
       <c r="E55">
-        <v>0.001832587264207736</v>
+        <v>-0.01677170858871588</v>
       </c>
       <c r="F55">
-        <v>0.03003595094292679</v>
+        <v>0.02483243431694106</v>
       </c>
       <c r="G55">
-        <v>-0.2389232645592425</v>
+        <v>-0.169088784810965</v>
       </c>
       <c r="H55">
-        <v>0.01215667575798693</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>0.006511043707844329</v>
+      </c>
+      <c r="I55">
+        <v>0.03920282667279553</v>
+      </c>
+      <c r="J55">
+        <v>-0.01910725478688014</v>
+      </c>
+      <c r="K55">
+        <v>0.06905216268352447</v>
+      </c>
+      <c r="L55">
+        <v>-0.01683871166931043</v>
+      </c>
+      <c r="M55">
+        <v>0.02332367559534675</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>-0.1702262111313559</v>
+        <v>-0.1461364477301637</v>
       </c>
       <c r="C56">
-        <v>0.02012687105235787</v>
+        <v>-0.07089513853302996</v>
       </c>
       <c r="D56">
-        <v>-0.06768184907787707</v>
+        <v>0.02861780009309299</v>
       </c>
       <c r="E56">
-        <v>0.05820991679032731</v>
+        <v>-0.02484077315760694</v>
       </c>
       <c r="F56">
-        <v>0.1003716449413181</v>
+        <v>-0.01328743423554138</v>
       </c>
       <c r="G56">
-        <v>-0.2229830113696381</v>
+        <v>-0.2401142494179245</v>
       </c>
       <c r="H56">
-        <v>0.04280964203500606</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>0.1116178279805975</v>
+      </c>
+      <c r="I56">
+        <v>0.06469264632508601</v>
+      </c>
+      <c r="J56">
+        <v>-0.03504029421265648</v>
+      </c>
+      <c r="K56">
+        <v>0.03050240427433212</v>
+      </c>
+      <c r="L56">
+        <v>-0.06951425432207969</v>
+      </c>
+      <c r="M56">
+        <v>0.02316695731507656</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,998 +3040,1583 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>-0.049641097550745</v>
+        <v>-0.04105385711432032</v>
       </c>
       <c r="C58">
-        <v>0.03871551365796955</v>
+        <v>-0.03505743627333522</v>
       </c>
       <c r="D58">
-        <v>-0.045766758996546</v>
+        <v>-0.01843081427866673</v>
       </c>
       <c r="E58">
-        <v>-0.2801641318750514</v>
+        <v>0.09402275948818337</v>
       </c>
       <c r="F58">
-        <v>-0.2335155091695481</v>
+        <v>-0.04058134029604501</v>
       </c>
       <c r="G58">
-        <v>0.133824095056377</v>
+        <v>0.08932654758644358</v>
       </c>
       <c r="H58">
-        <v>0.001975290726309091</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>-0.2224597060861705</v>
+      </c>
+      <c r="I58">
+        <v>0.06073711226349649</v>
+      </c>
+      <c r="J58">
+        <v>0.3914906901467646</v>
+      </c>
+      <c r="K58">
+        <v>-0.3498255371027493</v>
+      </c>
+      <c r="L58">
+        <v>0.2190657621217414</v>
+      </c>
+      <c r="M58">
+        <v>0.1231428470724015</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>-0.2463147014566243</v>
+        <v>-0.2277072506684281</v>
       </c>
       <c r="C59">
-        <v>-0.4158678473699289</v>
+        <v>0.3086632227321621</v>
       </c>
       <c r="D59">
-        <v>-0.05895144165787988</v>
+        <v>0.01570960239903723</v>
       </c>
       <c r="E59">
-        <v>-0.05205489626181425</v>
+        <v>-0.0008066429970780991</v>
       </c>
       <c r="F59">
-        <v>0.06658760505273663</v>
+        <v>0.0261391371521155</v>
       </c>
       <c r="G59">
-        <v>-0.005656469114700664</v>
+        <v>-0.07027822508833476</v>
       </c>
       <c r="H59">
-        <v>0.003401921494170998</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>0.09400156547593309</v>
+      </c>
+      <c r="I59">
+        <v>-0.03394343733904703</v>
+      </c>
+      <c r="J59">
+        <v>0.01183714366102818</v>
+      </c>
+      <c r="K59">
+        <v>0.02192323574278556</v>
+      </c>
+      <c r="L59">
+        <v>0.03679482123309798</v>
+      </c>
+      <c r="M59">
+        <v>0.02625682810389579</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>-0.2428495625988345</v>
+        <v>-0.240971737443296</v>
       </c>
       <c r="C60">
-        <v>0.08349230442663379</v>
+        <v>-0.1148404859976025</v>
       </c>
       <c r="D60">
-        <v>-0.08867091690946131</v>
+        <v>0.08475684183939407</v>
       </c>
       <c r="E60">
-        <v>0.0112618195168385</v>
+        <v>-0.0687678219709644</v>
       </c>
       <c r="F60">
-        <v>-0.002574880959827376</v>
+        <v>-0.06876936912238799</v>
       </c>
       <c r="G60">
-        <v>0.0583137514166216</v>
+        <v>0.07056226437589853</v>
       </c>
       <c r="H60">
-        <v>-0.09738986695251772</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>0.09608557197920613</v>
+      </c>
+      <c r="I60">
+        <v>0.1752283987729056</v>
+      </c>
+      <c r="J60">
+        <v>-6.082513079732028e-05</v>
+      </c>
+      <c r="K60">
+        <v>0.07302456592144602</v>
+      </c>
+      <c r="L60">
+        <v>0.0446896814667189</v>
+      </c>
+      <c r="M60">
+        <v>0.1749730232187404</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>-0.07845523215180901</v>
+        <v>-0.08461418885877413</v>
       </c>
       <c r="C61">
-        <v>0.05922066922189811</v>
+        <v>-0.05684972192956214</v>
       </c>
       <c r="D61">
-        <v>-0.01718809452949614</v>
+        <v>0.01664456655681694</v>
       </c>
       <c r="E61">
-        <v>-0.01250641111706277</v>
+        <v>0.02780943579449174</v>
       </c>
       <c r="F61">
-        <v>-0.0152107395416281</v>
+        <v>0.07762400306529106</v>
       </c>
       <c r="G61">
-        <v>-0.01748295244310138</v>
+        <v>-0.05838473425219162</v>
       </c>
       <c r="H61">
-        <v>0.02250194919562862</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>-0.04710711155638083</v>
+      </c>
+      <c r="I61">
+        <v>-0.07111280065791085</v>
+      </c>
+      <c r="J61">
+        <v>0.06695067412508317</v>
+      </c>
+      <c r="K61">
+        <v>-0.01346946441342105</v>
+      </c>
+      <c r="L61">
+        <v>-0.02871483535174191</v>
+      </c>
+      <c r="M61">
+        <v>0.01225806709264865</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>-0.1614506057528422</v>
+        <v>-0.146070244574859</v>
       </c>
       <c r="C62">
-        <v>0.04544136430359613</v>
+        <v>-0.07459133360933211</v>
       </c>
       <c r="D62">
-        <v>-0.02273129927460289</v>
+        <v>0.009543237708680159</v>
       </c>
       <c r="E62">
-        <v>0.1044036964269528</v>
+        <v>-0.06731758225979878</v>
       </c>
       <c r="F62">
-        <v>0.1038256693266873</v>
+        <v>0.01571769484730745</v>
       </c>
       <c r="G62">
-        <v>-0.2493601207038651</v>
+        <v>-0.2141971500848482</v>
       </c>
       <c r="H62">
-        <v>0.0239211694787338</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>0.05959599480396593</v>
+      </c>
+      <c r="I62">
+        <v>0.08483136841100519</v>
+      </c>
+      <c r="J62">
+        <v>-0.08294056559911263</v>
+      </c>
+      <c r="K62">
+        <v>0.08250315458080532</v>
+      </c>
+      <c r="L62">
+        <v>-0.07330979210817722</v>
+      </c>
+      <c r="M62">
+        <v>-0.06230209400500602</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>-0.04731712139023902</v>
+        <v>-0.04557728045240256</v>
       </c>
       <c r="C63">
-        <v>0.05316511628004655</v>
+        <v>-0.03009231260803604</v>
       </c>
       <c r="D63">
-        <v>-0.02074409195348163</v>
+        <v>-0.007883916569054924</v>
       </c>
       <c r="E63">
-        <v>-0.00762123715843741</v>
+        <v>0.006752035087903445</v>
       </c>
       <c r="F63">
-        <v>-0.00567930125031506</v>
+        <v>0.05591862803198818</v>
       </c>
       <c r="G63">
-        <v>-0.041345692455054</v>
+        <v>-0.01477096452664797</v>
       </c>
       <c r="H63">
-        <v>-0.01789196005072198</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>-0.07562719311835654</v>
+      </c>
+      <c r="I63">
+        <v>0.01093505527533761</v>
+      </c>
+      <c r="J63">
+        <v>-0.0004375459700272688</v>
+      </c>
+      <c r="K63">
+        <v>-0.01751300429454805</v>
+      </c>
+      <c r="L63">
+        <v>-0.01151380492657173</v>
+      </c>
+      <c r="M63">
+        <v>-0.03634991482604049</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>-0.103615869399419</v>
+        <v>-0.1026191539785032</v>
       </c>
       <c r="C64">
-        <v>0.03562301631223442</v>
+        <v>-0.04786858335286482</v>
       </c>
       <c r="D64">
-        <v>-0.03474654916643512</v>
+        <v>0.02832239235084711</v>
       </c>
       <c r="E64">
-        <v>-0.03782369422115327</v>
+        <v>0.03185219194556912</v>
       </c>
       <c r="F64">
-        <v>-0.04322539588399741</v>
+        <v>0.05510275497327857</v>
       </c>
       <c r="G64">
-        <v>0.0124173186807349</v>
+        <v>0.01048887092384157</v>
       </c>
       <c r="H64">
-        <v>-0.001109218726515948</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>-0.06184131751385429</v>
+      </c>
+      <c r="I64">
+        <v>-0.01103003107068728</v>
+      </c>
+      <c r="J64">
+        <v>0.04164389003876703</v>
+      </c>
+      <c r="K64">
+        <v>0.01548130401418281</v>
+      </c>
+      <c r="L64">
+        <v>-0.08930042538901455</v>
+      </c>
+      <c r="M64">
+        <v>-0.01180882184102706</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>-0.1288208125566995</v>
+        <v>-0.1256933690772989</v>
       </c>
       <c r="C65">
-        <v>0.07145147510957073</v>
+        <v>-0.0407724422021495</v>
       </c>
       <c r="D65">
-        <v>-0.05885020361927073</v>
+        <v>0.01113375280848648</v>
       </c>
       <c r="E65">
-        <v>-0.05298107858548947</v>
+        <v>-0.01348166822555913</v>
       </c>
       <c r="F65">
-        <v>-0.1599219355049783</v>
+        <v>0.06941596102934618</v>
       </c>
       <c r="G65">
-        <v>0.0565787880485803</v>
+        <v>0.1703364090427649</v>
       </c>
       <c r="H65">
-        <v>-0.3039488705799833</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>-0.2216231315333522</v>
+      </c>
+      <c r="I65">
+        <v>0.5913151439155194</v>
+      </c>
+      <c r="J65">
+        <v>-0.2556071415978343</v>
+      </c>
+      <c r="K65">
+        <v>-0.07965621133416106</v>
+      </c>
+      <c r="L65">
+        <v>0.1285543750959285</v>
+      </c>
+      <c r="M65">
+        <v>-0.03088834415539873</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>-0.1526971365980118</v>
+        <v>-0.1257021151161068</v>
       </c>
       <c r="C66">
-        <v>0.1449640643829347</v>
+        <v>-0.1238022274657054</v>
       </c>
       <c r="D66">
-        <v>-0.05088529889610032</v>
+        <v>0.001053294648031657</v>
       </c>
       <c r="E66">
-        <v>-0.01840410527689121</v>
+        <v>0.02927435377481099</v>
       </c>
       <c r="F66">
-        <v>0.005229504726100919</v>
+        <v>0.09835614746980391</v>
       </c>
       <c r="G66">
-        <v>-0.008040762954515921</v>
+        <v>-0.03838797077983738</v>
       </c>
       <c r="H66">
-        <v>0.03715747050741398</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>-0.07945082445571384</v>
+      </c>
+      <c r="I66">
+        <v>-0.1813246474123528</v>
+      </c>
+      <c r="J66">
+        <v>0.1535988567908688</v>
+      </c>
+      <c r="K66">
+        <v>-0.005981130527631524</v>
+      </c>
+      <c r="L66">
+        <v>-0.1289707171491414</v>
+      </c>
+      <c r="M66">
+        <v>0.09618315308035484</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>-0.07179601338521802</v>
+        <v>-0.08582919143709422</v>
       </c>
       <c r="C67">
-        <v>0.04451301314726075</v>
+        <v>-0.07003384486959406</v>
       </c>
       <c r="D67">
-        <v>-0.003618322415249703</v>
+        <v>0.02156484356831639</v>
       </c>
       <c r="E67">
-        <v>-0.01728127484002154</v>
+        <v>0.03287529998757828</v>
       </c>
       <c r="F67">
-        <v>0.00672278173857141</v>
+        <v>-0.01552139943985965</v>
       </c>
       <c r="G67">
-        <v>0.02690907260504967</v>
+        <v>-0.02392573967316052</v>
       </c>
       <c r="H67">
-        <v>0.04385100489847479</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>0.1160394557485828</v>
+      </c>
+      <c r="I67">
+        <v>-0.03358817349297562</v>
+      </c>
+      <c r="J67">
+        <v>-0.07217945401550017</v>
+      </c>
+      <c r="K67">
+        <v>0.06178226483370496</v>
+      </c>
+      <c r="L67">
+        <v>-0.03199271452001986</v>
+      </c>
+      <c r="M67">
+        <v>-0.0493459522232956</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>-0.1044830448318415</v>
+        <v>-0.1224429881451718</v>
       </c>
       <c r="C68">
-        <v>-0.2595677725516398</v>
+        <v>0.2713092911293917</v>
       </c>
       <c r="D68">
-        <v>-0.0144299604862664</v>
+        <v>-0.01014379755526053</v>
       </c>
       <c r="E68">
-        <v>-0.01823846203477972</v>
+        <v>0.0300367609518748</v>
       </c>
       <c r="F68">
-        <v>-0.01188049142854648</v>
+        <v>-0.006944751476141193</v>
       </c>
       <c r="G68">
-        <v>-0.02931971618485116</v>
+        <v>-0.02804682696392287</v>
       </c>
       <c r="H68">
-        <v>0.02679717168261449</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>-0.02717107875055598</v>
+      </c>
+      <c r="I68">
+        <v>0.05341677036233078</v>
+      </c>
+      <c r="J68">
+        <v>-0.0224370992036584</v>
+      </c>
+      <c r="K68">
+        <v>-0.03337783305607869</v>
+      </c>
+      <c r="L68">
+        <v>-0.03156270994859355</v>
+      </c>
+      <c r="M68">
+        <v>-0.02445252468914327</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>-0.04796933181651491</v>
+        <v>-0.04619821823909897</v>
       </c>
       <c r="C69">
-        <v>0.02607773192576089</v>
+        <v>-0.0253395555189727</v>
       </c>
       <c r="D69">
-        <v>-0.01111925142023208</v>
+        <v>-0.01021098268873921</v>
       </c>
       <c r="E69">
-        <v>-0.02678603071280114</v>
+        <v>0.007593533465017769</v>
       </c>
       <c r="F69">
-        <v>0.0457093636105537</v>
+        <v>0.02627756055450648</v>
       </c>
       <c r="G69">
-        <v>-0.02905201991024792</v>
+        <v>-0.03856262193379688</v>
       </c>
       <c r="H69">
-        <v>-0.01098304919475106</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>0.01355799196901625</v>
+      </c>
+      <c r="I69">
+        <v>0.001582527096963504</v>
+      </c>
+      <c r="J69">
+        <v>0.01845046534770257</v>
+      </c>
+      <c r="K69">
+        <v>-0.01719281274170826</v>
+      </c>
+      <c r="L69">
+        <v>0.0474039502432398</v>
+      </c>
+      <c r="M69">
+        <v>-0.06474229110430128</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>-0.03111672007825363</v>
+        <v>-0.05444587504765614</v>
       </c>
       <c r="C70">
-        <v>0.01186105844683099</v>
+        <v>-0.03500540897207891</v>
       </c>
       <c r="D70">
-        <v>0.01174280920756078</v>
+        <v>0.02088654678187649</v>
       </c>
       <c r="E70">
-        <v>-0.007979750024313059</v>
+        <v>-0.03159187638209191</v>
       </c>
       <c r="F70">
-        <v>-0.009503514472979546</v>
+        <v>0.03434249825469695</v>
       </c>
       <c r="G70">
-        <v>0.09725589415967455</v>
+        <v>0.03463368178441369</v>
       </c>
       <c r="H70">
-        <v>0.04486002749989906</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>0.06765892042610398</v>
+      </c>
+      <c r="I70">
+        <v>-0.1209950987484985</v>
+      </c>
+      <c r="J70">
+        <v>-0.139007164476492</v>
+      </c>
+      <c r="K70">
+        <v>-0.1557497233176602</v>
+      </c>
+      <c r="L70">
+        <v>0.0551938461370961</v>
+      </c>
+      <c r="M70">
+        <v>-0.100660228962336</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>-0.1104000581746768</v>
+        <v>-0.1366768884138342</v>
       </c>
       <c r="C71">
-        <v>-0.2774940126131447</v>
+        <v>0.2810206156718907</v>
       </c>
       <c r="D71">
-        <v>-0.0461739685165858</v>
+        <v>0.0108505614248216</v>
       </c>
       <c r="E71">
-        <v>-0.01072633572776299</v>
+        <v>0.03847946959309143</v>
       </c>
       <c r="F71">
-        <v>-0.01882462173311163</v>
+        <v>-0.002925732660779963</v>
       </c>
       <c r="G71">
-        <v>0.004984987110542826</v>
+        <v>-0.01537697197669019</v>
       </c>
       <c r="H71">
-        <v>0.02982388064956526</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>-0.02496509093140736</v>
+      </c>
+      <c r="I71">
+        <v>0.01335078489546201</v>
+      </c>
+      <c r="J71">
+        <v>-0.005830897578260121</v>
+      </c>
+      <c r="K71">
+        <v>0.008053261931960192</v>
+      </c>
+      <c r="L71">
+        <v>-0.006092554486704887</v>
+      </c>
+      <c r="M71">
+        <v>-0.0125480184395728</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>-0.1845500732098318</v>
+        <v>-0.1445398458867864</v>
       </c>
       <c r="C72">
-        <v>0.0232898882317463</v>
+        <v>-0.03467050455732588</v>
       </c>
       <c r="D72">
-        <v>0.2139474103861427</v>
+        <v>-0.1586911733337104</v>
       </c>
       <c r="E72">
-        <v>0.02545248018592116</v>
+        <v>-0.09172084085144873</v>
       </c>
       <c r="F72">
-        <v>0.01118493471598852</v>
+        <v>0.09502363541946053</v>
       </c>
       <c r="G72">
-        <v>0.00255559858892912</v>
+        <v>-0.01612591321200177</v>
       </c>
       <c r="H72">
-        <v>-0.1368320195957377</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>0.01519625958229662</v>
+      </c>
+      <c r="I72">
+        <v>0.1589465349337633</v>
+      </c>
+      <c r="J72">
+        <v>-0.02532636603219206</v>
+      </c>
+      <c r="K72">
+        <v>0.06454609945669414</v>
+      </c>
+      <c r="L72">
+        <v>0.0216375356629873</v>
+      </c>
+      <c r="M72">
+        <v>-0.02195796083792689</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>-0.2641978808925275</v>
+        <v>-0.2348228650827838</v>
       </c>
       <c r="C73">
-        <v>0.1746065717428377</v>
+        <v>-0.1563961421714641</v>
       </c>
       <c r="D73">
-        <v>-0.1636481959443715</v>
+        <v>0.1930150207595908</v>
       </c>
       <c r="E73">
-        <v>0.1002166759536119</v>
+        <v>-0.169112616890322</v>
       </c>
       <c r="F73">
-        <v>-0.139576994195106</v>
+        <v>-0.3326007368647551</v>
       </c>
       <c r="G73">
-        <v>0.1244771750923608</v>
+        <v>0.2754585907402695</v>
       </c>
       <c r="H73">
-        <v>-0.1698238390991681</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>0.07916132113648179</v>
+      </c>
+      <c r="I73">
+        <v>0.1072837387077518</v>
+      </c>
+      <c r="J73">
+        <v>0.4431182728131788</v>
+      </c>
+      <c r="K73">
+        <v>0.2418550341127033</v>
+      </c>
+      <c r="L73">
+        <v>0.003875188796186623</v>
+      </c>
+      <c r="M73">
+        <v>-0.06433552156010122</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>-0.08857077520396206</v>
+        <v>-0.08740211103861112</v>
       </c>
       <c r="C74">
-        <v>0.0240205620493632</v>
+        <v>-0.06577408993851021</v>
       </c>
       <c r="D74">
-        <v>-0.02110435898552076</v>
+        <v>0.009376575068626002</v>
       </c>
       <c r="E74">
-        <v>0.02658482925592622</v>
+        <v>-0.02030477446535537</v>
       </c>
       <c r="F74">
-        <v>-0.02423135225855548</v>
+        <v>-0.0254851267439869</v>
       </c>
       <c r="G74">
-        <v>-0.1627658624518375</v>
+        <v>-0.144634602133809</v>
       </c>
       <c r="H74">
-        <v>0.005226599796496697</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>0.009406372291647763</v>
+      </c>
+      <c r="I74">
+        <v>0.03916639062852079</v>
+      </c>
+      <c r="J74">
+        <v>0.03936664142472254</v>
+      </c>
+      <c r="K74">
+        <v>0.0505577479179064</v>
+      </c>
+      <c r="L74">
+        <v>-0.02614313146205947</v>
+      </c>
+      <c r="M74">
+        <v>-0.05085913335838631</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>-0.09950437620226037</v>
+        <v>-0.09064937959308897</v>
       </c>
       <c r="C75">
-        <v>0.02170706277522967</v>
+        <v>-0.05039504146405764</v>
       </c>
       <c r="D75">
-        <v>-0.02280580840678778</v>
+        <v>-0.0005747149093678558</v>
       </c>
       <c r="E75">
-        <v>0.01706044017369421</v>
+        <v>-0.01717010531984182</v>
       </c>
       <c r="F75">
-        <v>0.08886990545133538</v>
+        <v>-0.009580794101356092</v>
       </c>
       <c r="G75">
-        <v>-0.09798713655156781</v>
+        <v>-0.1203771477175033</v>
       </c>
       <c r="H75">
-        <v>0.03146594085110829</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>0.07664184143542861</v>
+      </c>
+      <c r="I75">
+        <v>0.01752756341668873</v>
+      </c>
+      <c r="J75">
+        <v>-0.01849721404108508</v>
+      </c>
+      <c r="K75">
+        <v>-0.02456500058208518</v>
+      </c>
+      <c r="L75">
+        <v>0.06608794902004611</v>
+      </c>
+      <c r="M75">
+        <v>-0.00925694692962078</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>-0.1330407701561077</v>
+        <v>-0.1041214284612666</v>
       </c>
       <c r="C76">
-        <v>0.03645676583811686</v>
+        <v>-0.07405248465736236</v>
       </c>
       <c r="D76">
-        <v>-0.02957162821473309</v>
+        <v>0.02758164161230887</v>
       </c>
       <c r="E76">
-        <v>0.0202251228236047</v>
+        <v>-0.02794586908133027</v>
       </c>
       <c r="F76">
-        <v>0.06299772732044448</v>
+        <v>-0.02620555288650366</v>
       </c>
       <c r="G76">
-        <v>-0.2399327212350418</v>
+        <v>-0.224558530893491</v>
       </c>
       <c r="H76">
-        <v>0.009775103986416785</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>0.05883937742355864</v>
+      </c>
+      <c r="I76">
+        <v>0.06206403492306269</v>
+      </c>
+      <c r="J76">
+        <v>-0.009470029321911553</v>
+      </c>
+      <c r="K76">
+        <v>0.06756252402507261</v>
+      </c>
+      <c r="L76">
+        <v>-0.09497523197754444</v>
+      </c>
+      <c r="M76">
+        <v>0.04610068511948743</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>-0.09124302702942437</v>
+        <v>-0.07389600556611746</v>
       </c>
       <c r="C77">
-        <v>0.04625003453409977</v>
+        <v>-0.02034378072878406</v>
       </c>
       <c r="D77">
-        <v>0.06076934370718017</v>
+        <v>-0.006366774231730791</v>
       </c>
       <c r="E77">
-        <v>-0.419309429888206</v>
+        <v>0.142330593551016</v>
       </c>
       <c r="F77">
-        <v>0.4603333382598247</v>
+        <v>0.6182014193462018</v>
       </c>
       <c r="G77">
-        <v>0.1628365218139303</v>
+        <v>0.3401689655367123</v>
       </c>
       <c r="H77">
-        <v>-0.5221394102356547</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>0.5069637230058074</v>
+      </c>
+      <c r="I77">
+        <v>0.08607872408724136</v>
+      </c>
+      <c r="J77">
+        <v>0.1037364559214272</v>
+      </c>
+      <c r="K77">
+        <v>0.1579712689614175</v>
+      </c>
+      <c r="L77">
+        <v>-0.1330143044821636</v>
+      </c>
+      <c r="M77">
+        <v>0.03681075818917019</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>-0.1217407438830697</v>
+        <v>-0.162932512744513</v>
       </c>
       <c r="C78">
-        <v>0.09735664100629743</v>
+        <v>-0.1104656509342362</v>
       </c>
       <c r="D78">
-        <v>-0.01860116620398204</v>
+        <v>-0.00481390679755036</v>
       </c>
       <c r="E78">
-        <v>-0.103907267037378</v>
+        <v>0.1979573015341913</v>
       </c>
       <c r="F78">
-        <v>-0.09914699828664165</v>
+        <v>0.01374367460480855</v>
       </c>
       <c r="G78">
-        <v>0.02877906099168476</v>
+        <v>0.07702350883745895</v>
       </c>
       <c r="H78">
-        <v>0.05081267317599458</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>-0.1448026243066501</v>
+      </c>
+      <c r="I78">
+        <v>-0.16140878859675</v>
+      </c>
+      <c r="J78">
+        <v>-0.1929215007535338</v>
+      </c>
+      <c r="K78">
+        <v>0.2939230158827592</v>
+      </c>
+      <c r="L78">
+        <v>0.3078092250808674</v>
+      </c>
+      <c r="M78">
+        <v>0.6275638934178849</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>-0.1461140439418332</v>
+        <v>-0.1366132274093917</v>
       </c>
       <c r="C79">
-        <v>0.0561864688709446</v>
+        <v>-0.0752356667116654</v>
       </c>
       <c r="D79">
-        <v>-0.03241491146609918</v>
+        <v>0.01064981035212534</v>
       </c>
       <c r="E79">
-        <v>0.02837944411440357</v>
+        <v>-0.006857227602549363</v>
       </c>
       <c r="F79">
-        <v>0.09749828208850737</v>
+        <v>0.01312359759243246</v>
       </c>
       <c r="G79">
-        <v>-0.1561876900419963</v>
+        <v>-0.1746420656770452</v>
       </c>
       <c r="H79">
-        <v>0.04998354825816263</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>0.07384985806119859</v>
+      </c>
+      <c r="I79">
+        <v>0.06738904015980612</v>
+      </c>
+      <c r="J79">
+        <v>-0.0421220083125075</v>
+      </c>
+      <c r="K79">
+        <v>0.0233737166572425</v>
+      </c>
+      <c r="L79">
+        <v>-0.008648991344858584</v>
+      </c>
+      <c r="M79">
+        <v>-0.05666979908065641</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>-0.01727875135240404</v>
+        <v>-0.03646415824833132</v>
       </c>
       <c r="C80">
-        <v>-0.007491114882542008</v>
+        <v>-0.01371071537383169</v>
       </c>
       <c r="D80">
-        <v>0.006434418193064105</v>
+        <v>0.03983628742817943</v>
       </c>
       <c r="E80">
-        <v>0.004216608179102742</v>
+        <v>-0.06880378430726421</v>
       </c>
       <c r="F80">
-        <v>-0.04534794839734591</v>
+        <v>0.0331359902454197</v>
       </c>
       <c r="G80">
-        <v>-0.008964693041286548</v>
+        <v>-0.007041405773804159</v>
       </c>
       <c r="H80">
-        <v>-0.03844487668054708</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>-0.110618687607638</v>
+      </c>
+      <c r="I80">
+        <v>-0.04875540859056296</v>
+      </c>
+      <c r="J80">
+        <v>0.01693721507649542</v>
+      </c>
+      <c r="K80">
+        <v>0.009067775532571661</v>
+      </c>
+      <c r="L80">
+        <v>0.06995881497080991</v>
+      </c>
+      <c r="M80">
+        <v>-0.03094691723054232</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>-0.1211856757186464</v>
+        <v>-0.1210859844323936</v>
       </c>
       <c r="C81">
-        <v>0.04377069551368629</v>
+        <v>-0.05346103248616765</v>
       </c>
       <c r="D81">
-        <v>-0.0414973035264262</v>
+        <v>0.01395806262511565</v>
       </c>
       <c r="E81">
-        <v>0.02589296921023489</v>
+        <v>-0.008360842044234339</v>
       </c>
       <c r="F81">
-        <v>0.05246972504469048</v>
+        <v>0.0189122740109768</v>
       </c>
       <c r="G81">
-        <v>-0.09818991580020635</v>
+        <v>-0.1718148281758186</v>
       </c>
       <c r="H81">
-        <v>0.002881616911860212</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>0.03147081148860382</v>
+      </c>
+      <c r="I81">
+        <v>0.002133873683864034</v>
+      </c>
+      <c r="J81">
+        <v>0.03524077005400332</v>
+      </c>
+      <c r="K81">
+        <v>-0.02769634357824935</v>
+      </c>
+      <c r="L81">
+        <v>0.009949870573618454</v>
+      </c>
+      <c r="M81">
+        <v>-0.04393156150814315</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>-0.116931788661127</v>
+        <v>-0.1182296266188614</v>
       </c>
       <c r="C82">
-        <v>0.05384133026240972</v>
+        <v>-0.06041603368355459</v>
       </c>
       <c r="D82">
-        <v>-0.0636048410597288</v>
+        <v>0.01771489012595609</v>
       </c>
       <c r="E82">
-        <v>0.05428347199389233</v>
+        <v>-0.02943130178042158</v>
       </c>
       <c r="F82">
-        <v>0.1458993656747293</v>
+        <v>-0.01494410646202952</v>
       </c>
       <c r="G82">
-        <v>-0.2534698807181379</v>
+        <v>-0.2578595901715447</v>
       </c>
       <c r="H82">
-        <v>0.08149769900254254</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>0.08303607708974255</v>
+      </c>
+      <c r="I82">
+        <v>-0.03403257237030776</v>
+      </c>
+      <c r="J82">
+        <v>-0.0152925864146735</v>
+      </c>
+      <c r="K82">
+        <v>0.008643623659617813</v>
+      </c>
+      <c r="L82">
+        <v>-0.04417656924763116</v>
+      </c>
+      <c r="M82">
+        <v>-0.1254793613167842</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>-0.04678545382652564</v>
+        <v>-0.07516138190785521</v>
       </c>
       <c r="C83">
-        <v>0.03017903821646182</v>
+        <v>-0.05948247051588257</v>
       </c>
       <c r="D83">
-        <v>-0.03464870592005853</v>
+        <v>0.03079763593647708</v>
       </c>
       <c r="E83">
-        <v>0.01025045946486478</v>
+        <v>0.003480006084646897</v>
       </c>
       <c r="F83">
-        <v>-0.007030604540950535</v>
+        <v>0.01984623090845139</v>
       </c>
       <c r="G83">
-        <v>0.1096130667487335</v>
+        <v>0.03265199948307165</v>
       </c>
       <c r="H83">
-        <v>0.05333573815191426</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>0.002726343030857953</v>
+      </c>
+      <c r="I83">
+        <v>-0.09297161074528025</v>
+      </c>
+      <c r="J83">
+        <v>-0.05385761856400724</v>
+      </c>
+      <c r="K83">
+        <v>-0.07762898602927239</v>
+      </c>
+      <c r="L83">
+        <v>0.0609031951345704</v>
+      </c>
+      <c r="M83">
+        <v>-0.0316531156646782</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>-0.05242086559889229</v>
+        <v>-0.03965179945728996</v>
       </c>
       <c r="C84">
-        <v>0.02128376793375364</v>
+        <v>0.02530272699486619</v>
       </c>
       <c r="D84">
-        <v>0.01037053666167526</v>
+        <v>-0.03462656766479209</v>
       </c>
       <c r="E84">
-        <v>0.02533808710318448</v>
+        <v>0.0105154718480619</v>
       </c>
       <c r="F84">
-        <v>-0.111443309009038</v>
+        <v>-0.05729012355892458</v>
       </c>
       <c r="G84">
-        <v>-0.02962859443215774</v>
+        <v>0.1476249397595813</v>
       </c>
       <c r="H84">
-        <v>0.09218943893435234</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>-0.2096097048101348</v>
+      </c>
+      <c r="I84">
+        <v>-0.2535456061653757</v>
+      </c>
+      <c r="J84">
+        <v>-0.2236535967637649</v>
+      </c>
+      <c r="K84">
+        <v>0.3539712850248711</v>
+      </c>
+      <c r="L84">
+        <v>-0.1254508100434554</v>
+      </c>
+      <c r="M84">
+        <v>-0.135256647980186</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>-0.07720317210501472</v>
+        <v>-0.1066413115593671</v>
       </c>
       <c r="C85">
-        <v>0.04504477895424292</v>
+        <v>-0.0533870411956273</v>
       </c>
       <c r="D85">
-        <v>-0.06285071001154915</v>
+        <v>0.04774422987221579</v>
       </c>
       <c r="E85">
-        <v>0.01762570273811555</v>
+        <v>0.001520842510646244</v>
       </c>
       <c r="F85">
-        <v>0.05863187897140654</v>
+        <v>0.007692687185155043</v>
       </c>
       <c r="G85">
-        <v>-0.1731373873066396</v>
+        <v>-0.1814456354315402</v>
       </c>
       <c r="H85">
-        <v>-0.004492508757172966</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>0.04750903748051945</v>
+      </c>
+      <c r="I85">
+        <v>0.05711067492071278</v>
+      </c>
+      <c r="J85">
+        <v>-0.03453454444094337</v>
+      </c>
+      <c r="K85">
+        <v>0.04200939411800224</v>
+      </c>
+      <c r="L85">
+        <v>0.00643298918180034</v>
+      </c>
+      <c r="M85">
+        <v>-0.03695353013453771</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>-0.0368979294721685</v>
+        <v>-0.07064071671380859</v>
       </c>
       <c r="C86">
-        <v>0.04930567735217697</v>
+        <v>-0.01980650609561302</v>
       </c>
       <c r="D86">
-        <v>0.01107836595946047</v>
+        <v>0.002100911365347383</v>
       </c>
       <c r="E86">
-        <v>-0.04260800663942936</v>
+        <v>0.06045982024687002</v>
       </c>
       <c r="F86">
-        <v>-0.0504991805597597</v>
+        <v>-0.004176906805146647</v>
       </c>
       <c r="G86">
-        <v>0.04111850429339169</v>
+        <v>0.08078165005464596</v>
       </c>
       <c r="H86">
-        <v>-0.07675103725587738</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>-0.1045847229222142</v>
+      </c>
+      <c r="I86">
+        <v>-0.2292925694211103</v>
+      </c>
+      <c r="J86">
+        <v>-0.2664651618195764</v>
+      </c>
+      <c r="K86">
+        <v>0.2726595595557024</v>
+      </c>
+      <c r="L86">
+        <v>0.1849059789051836</v>
+      </c>
+      <c r="M86">
+        <v>-0.1684493225722411</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>-0.09720743528190531</v>
+        <v>-0.1158044030861644</v>
       </c>
       <c r="C87">
-        <v>0.06461972797209586</v>
+        <v>-0.06686615898663449</v>
       </c>
       <c r="D87">
-        <v>0.007840312852771108</v>
+        <v>-0.01298400804468948</v>
       </c>
       <c r="E87">
-        <v>-0.1718969573698574</v>
+        <v>0.07495990138987785</v>
       </c>
       <c r="F87">
-        <v>0.06247753471925391</v>
+        <v>0.1851239155851662</v>
       </c>
       <c r="G87">
-        <v>0.04400678517000454</v>
+        <v>0.1450758075069798</v>
       </c>
       <c r="H87">
-        <v>-0.1295814987581372</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>0.03572595791921589</v>
+      </c>
+      <c r="I87">
+        <v>-0.02991462018037018</v>
+      </c>
+      <c r="J87">
+        <v>0.01564498496028865</v>
+      </c>
+      <c r="K87">
+        <v>0.02608539468460213</v>
+      </c>
+      <c r="L87">
+        <v>-0.08334676361977088</v>
+      </c>
+      <c r="M87">
+        <v>-0.1168764004043399</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>-0.0465229688883725</v>
+        <v>-0.05922051515228603</v>
       </c>
       <c r="C88">
-        <v>0.03776481087819451</v>
+        <v>-0.05391386727549846</v>
       </c>
       <c r="D88">
-        <v>-0.01544165891539131</v>
+        <v>0.02777818421413231</v>
       </c>
       <c r="E88">
-        <v>-0.008229060950983408</v>
+        <v>-0.01105711566571882</v>
       </c>
       <c r="F88">
-        <v>-0.00679396747380353</v>
+        <v>0.03553307894343667</v>
       </c>
       <c r="G88">
-        <v>0.02319205603677381</v>
+        <v>-0.02434259475531959</v>
       </c>
       <c r="H88">
-        <v>0.008650355232842898</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>-0.04696347069716875</v>
+      </c>
+      <c r="I88">
+        <v>-0.0392291193649032</v>
+      </c>
+      <c r="J88">
+        <v>0.02989087245820065</v>
+      </c>
+      <c r="K88">
+        <v>-0.01622139557168705</v>
+      </c>
+      <c r="L88">
+        <v>0.01003734325711875</v>
+      </c>
+      <c r="M88">
+        <v>0.003774301992172448</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>-0.1673562883172783</v>
+        <v>-0.2216188011616435</v>
       </c>
       <c r="C89">
-        <v>-0.3059973625164181</v>
+        <v>0.3533288384289503</v>
       </c>
       <c r="D89">
-        <v>-0.08517425537252989</v>
+        <v>0.06044777927187594</v>
       </c>
       <c r="E89">
-        <v>-0.0906705544917004</v>
+        <v>0.06479886810476461</v>
       </c>
       <c r="F89">
-        <v>-0.01119877337568024</v>
+        <v>-0.007378896950095913</v>
       </c>
       <c r="G89">
-        <v>0.04227988549671353</v>
+        <v>-0.007818345010745081</v>
       </c>
       <c r="H89">
-        <v>0.0287931426288075</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>-0.01461643397729242</v>
+      </c>
+      <c r="I89">
+        <v>-0.05364526190732317</v>
+      </c>
+      <c r="J89">
+        <v>0.09561458362406283</v>
+      </c>
+      <c r="K89">
+        <v>-0.0774865187337693</v>
+      </c>
+      <c r="L89">
+        <v>0.052433189448127</v>
+      </c>
+      <c r="M89">
+        <v>0.003758213431480144</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>-0.1327149992293528</v>
+        <v>-0.1503984861412552</v>
       </c>
       <c r="C90">
-        <v>-0.2666101122289621</v>
+        <v>0.2650766763045051</v>
       </c>
       <c r="D90">
-        <v>-0.02367112479704812</v>
+        <v>0.010640279614328</v>
       </c>
       <c r="E90">
-        <v>-0.06370903869934558</v>
+        <v>0.02656610705566617</v>
       </c>
       <c r="F90">
-        <v>-0.03713685350427422</v>
+        <v>0.02069545958645846</v>
       </c>
       <c r="G90">
-        <v>0.03203113860718174</v>
+        <v>0.02614352151145481</v>
       </c>
       <c r="H90">
-        <v>-0.002691058571277082</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>-0.02787190372986875</v>
+      </c>
+      <c r="I90">
+        <v>0.0003138685626937411</v>
+      </c>
+      <c r="J90">
+        <v>0.04625518307411067</v>
+      </c>
+      <c r="K90">
+        <v>0.01225692344880145</v>
+      </c>
+      <c r="L90">
+        <v>-0.0380350494330671</v>
+      </c>
+      <c r="M90">
+        <v>0.02925510971316506</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>-0.08543172294957475</v>
+        <v>-0.07468085323537035</v>
       </c>
       <c r="C91">
-        <v>0.03075240811573262</v>
+        <v>-0.05325270958339172</v>
       </c>
       <c r="D91">
-        <v>-0.01873507119076865</v>
+        <v>0.006330773711251961</v>
       </c>
       <c r="E91">
-        <v>-0.001422628374144229</v>
+        <v>-0.003285069395357278</v>
       </c>
       <c r="F91">
-        <v>0.03319992564090048</v>
+        <v>-0.01410107457775624</v>
       </c>
       <c r="G91">
-        <v>-0.1085535186935204</v>
+        <v>-0.09246511346095485</v>
       </c>
       <c r="H91">
-        <v>0.01885901662722846</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>0.04925937510817859</v>
+      </c>
+      <c r="I91">
+        <v>0.02418022320581484</v>
+      </c>
+      <c r="J91">
+        <v>0.01813576385510611</v>
+      </c>
+      <c r="K91">
+        <v>0.00176007385169464</v>
+      </c>
+      <c r="L91">
+        <v>0.02484956350560572</v>
+      </c>
+      <c r="M91">
+        <v>0.02328987464867206</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>-0.1478224445690347</v>
+        <v>-0.1706721999034148</v>
       </c>
       <c r="C92">
-        <v>-0.3078536389595588</v>
+        <v>0.3019666149100963</v>
       </c>
       <c r="D92">
-        <v>-0.06365439137129193</v>
+        <v>0.01937070234984654</v>
       </c>
       <c r="E92">
-        <v>-0.01752565291503934</v>
+        <v>0.05210356821109416</v>
       </c>
       <c r="F92">
-        <v>-0.06581530972615149</v>
+        <v>-0.02176632118784454</v>
       </c>
       <c r="G92">
-        <v>0.003159643265914498</v>
+        <v>-0.034676766449155</v>
       </c>
       <c r="H92">
-        <v>0.0634121248876203</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>-0.03026759400059099</v>
+      </c>
+      <c r="I92">
+        <v>-0.018388235498031</v>
+      </c>
+      <c r="J92">
+        <v>0.036824296972929</v>
+      </c>
+      <c r="K92">
+        <v>-0.01055397746821455</v>
+      </c>
+      <c r="L92">
+        <v>-0.002942878738901779</v>
+      </c>
+      <c r="M92">
+        <v>-0.009768773799952045</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>-0.136306297890078</v>
+        <v>-0.1641227888714435</v>
       </c>
       <c r="C93">
-        <v>-0.2508129284795084</v>
+        <v>0.2873323089274685</v>
       </c>
       <c r="D93">
-        <v>-0.03415832584545524</v>
+        <v>0.009444866392485953</v>
       </c>
       <c r="E93">
-        <v>-0.02596341413862878</v>
+        <v>0.007595087379766607</v>
       </c>
       <c r="F93">
-        <v>-0.02538693691962466</v>
+        <v>-0.006291383692148053</v>
       </c>
       <c r="G93">
-        <v>0.0576580685667928</v>
+        <v>0.01100304023763993</v>
       </c>
       <c r="H93">
-        <v>0.009574101242224247</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>-0.01415576079178638</v>
+      </c>
+      <c r="I93">
+        <v>-0.0144201238163035</v>
+      </c>
+      <c r="J93">
+        <v>-0.02528473706590791</v>
+      </c>
+      <c r="K93">
+        <v>-0.0143991628675398</v>
+      </c>
+      <c r="L93">
+        <v>-0.02203284418194354</v>
+      </c>
+      <c r="M93">
+        <v>-0.01208255823252904</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>-0.08552681568453249</v>
+        <v>-0.1043015987698582</v>
       </c>
       <c r="C94">
-        <v>0.0630443546050764</v>
+        <v>-0.07764764361984683</v>
       </c>
       <c r="D94">
-        <v>-0.0241072636595093</v>
+        <v>0.02313564263253839</v>
       </c>
       <c r="E94">
-        <v>-0.006260837158876391</v>
+        <v>0.01027690433356253</v>
       </c>
       <c r="F94">
-        <v>0.05643245967360828</v>
+        <v>-0.04826917519791233</v>
       </c>
       <c r="G94">
-        <v>-0.13645306321642</v>
+        <v>-0.1266631323831545</v>
       </c>
       <c r="H94">
-        <v>0.05895081592552472</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>0.04035331526679008</v>
+      </c>
+      <c r="I94">
+        <v>0.0246523546393059</v>
+      </c>
+      <c r="J94">
+        <v>-0.001609592583961843</v>
+      </c>
+      <c r="K94">
+        <v>-0.03081733474567612</v>
+      </c>
+      <c r="L94">
+        <v>0.05764234736761258</v>
+      </c>
+      <c r="M94">
+        <v>-0.02078635258025249</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>-0.1029401529274201</v>
+        <v>-0.1353342826734773</v>
       </c>
       <c r="C95">
-        <v>0.1116799034153604</v>
+        <v>-0.07516762579270467</v>
       </c>
       <c r="D95">
-        <v>-0.09125070511803919</v>
+        <v>0.03441794274639784</v>
       </c>
       <c r="E95">
-        <v>-0.01216877092055659</v>
+        <v>0.07059517660000428</v>
       </c>
       <c r="F95">
-        <v>-0.04170368411503652</v>
+        <v>0.0176532487276093</v>
       </c>
       <c r="G95">
-        <v>0.02052579320455897</v>
+        <v>0.1590786965141457</v>
       </c>
       <c r="H95">
-        <v>-0.05464265263797263</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>-0.1250014943389817</v>
+      </c>
+      <c r="I95">
+        <v>-0.03059162965789641</v>
+      </c>
+      <c r="J95">
+        <v>0.02953672331936398</v>
+      </c>
+      <c r="K95">
+        <v>0.004555451039486532</v>
+      </c>
+      <c r="L95">
+        <v>0.1454235952872731</v>
+      </c>
+      <c r="M95">
+        <v>-0.5115866717726544</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -3199,88 +4639,148 @@
       <c r="H96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>-0.3186221193426261</v>
+        <v>-0.1777219587036507</v>
       </c>
       <c r="C97">
-        <v>0.002972097556155752</v>
+        <v>-0.006837963495469111</v>
       </c>
       <c r="D97">
-        <v>0.8623913644556339</v>
+        <v>-0.8491403370618359</v>
       </c>
       <c r="E97">
-        <v>0.1896341255507966</v>
+        <v>-0.4030839012195258</v>
       </c>
       <c r="F97">
-        <v>-0.07663057624603034</v>
+        <v>0.04113534683439684</v>
       </c>
       <c r="G97">
-        <v>0.04965839836512334</v>
+        <v>0.05822368157082404</v>
       </c>
       <c r="H97">
-        <v>-0.03345014106856255</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>-0.04576661931188312</v>
+      </c>
+      <c r="I97">
+        <v>-0.05589067113594498</v>
+      </c>
+      <c r="J97">
+        <v>0.07441187799324056</v>
+      </c>
+      <c r="K97">
+        <v>0.006596600565917468</v>
+      </c>
+      <c r="L97">
+        <v>0.02618283386979944</v>
+      </c>
+      <c r="M97">
+        <v>0.02347033262536202</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>-0.247955826712641</v>
+        <v>-0.2578141866829752</v>
       </c>
       <c r="C98">
-        <v>0.1177845571522715</v>
+        <v>-0.1298041567433526</v>
       </c>
       <c r="D98">
-        <v>-0.1800869073730009</v>
+        <v>0.1239981853052815</v>
       </c>
       <c r="E98">
-        <v>0.3782697312029209</v>
+        <v>-0.2257011589883371</v>
       </c>
       <c r="F98">
-        <v>-0.02042033890620083</v>
+        <v>-0.2658808822777821</v>
       </c>
       <c r="G98">
-        <v>0.5138563837068815</v>
+        <v>0.3098733988602852</v>
       </c>
       <c r="H98">
-        <v>0.2502389540340752</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>0.1840397096923452</v>
+      </c>
+      <c r="I98">
+        <v>-0.2149253582578308</v>
+      </c>
+      <c r="J98">
+        <v>-0.3369662489153838</v>
+      </c>
+      <c r="K98">
+        <v>-0.4342477115365301</v>
+      </c>
+      <c r="L98">
+        <v>-0.2938989940566492</v>
+      </c>
+      <c r="M98">
+        <v>0.1320808084797459</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>-0.07227601981637974</v>
+        <v>-0.0764706948108342</v>
       </c>
       <c r="C99">
-        <v>0.06274196301411904</v>
+        <v>-0.06307041544979816</v>
       </c>
       <c r="D99">
-        <v>0.05837730540481195</v>
+        <v>-0.02085765572392312</v>
       </c>
       <c r="E99">
-        <v>-0.1452413607256262</v>
+        <v>0.051970949076991</v>
       </c>
       <c r="F99">
-        <v>0.6516172278999707</v>
+        <v>0.03272329244442764</v>
       </c>
       <c r="G99">
-        <v>0.262539973890685</v>
+        <v>-0.04828894303634404</v>
       </c>
       <c r="H99">
-        <v>0.4466573872047874</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>0.3858382978570505</v>
+      </c>
+      <c r="I99">
+        <v>-0.1981161868472559</v>
+      </c>
+      <c r="J99">
+        <v>-0.07212100195815226</v>
+      </c>
+      <c r="K99">
+        <v>-0.29513966239964</v>
+      </c>
+      <c r="L99">
+        <v>0.598687326198317</v>
+      </c>
+      <c r="M99">
+        <v>-0.0595214352883551</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3303,36 +4803,66 @@
       <c r="H100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>-0.04759913585343137</v>
+        <v>-0.04518436427553583</v>
       </c>
       <c r="C101">
-        <v>0.007774433587188454</v>
+        <v>-0.02235993879819221</v>
       </c>
       <c r="D101">
-        <v>-0.01247678062760582</v>
+        <v>0.01263491600315212</v>
       </c>
       <c r="E101">
-        <v>-0.02647993428553824</v>
+        <v>0.02530124279266505</v>
       </c>
       <c r="F101">
-        <v>-0.03906274158424317</v>
+        <v>0.03962448790569665</v>
       </c>
       <c r="G101">
-        <v>-0.01603215540815578</v>
+        <v>-0.05194206919355411</v>
       </c>
       <c r="H101">
-        <v>-0.009714921229635229</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>-0.06136051441755362</v>
+      </c>
+      <c r="I101">
+        <v>-0.0074201457789128</v>
+      </c>
+      <c r="J101">
+        <v>-0.01764151131612407</v>
+      </c>
+      <c r="K101">
+        <v>-0.003359814681572633</v>
+      </c>
+      <c r="L101">
+        <v>-0.0146061670381291</v>
+      </c>
+      <c r="M101">
+        <v>-0.01533187815648488</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4885,25 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4926,25 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4965,21 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
